--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\PROJECTS\HYBRID WELDING CUTTING\Вузли\ПЗ\Variation_ForChina_ITR5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\PROJECTS\HYBRID WELDING CUTTING_UA\HWC_UA_SOFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1319,13 +1319,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1640,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150:B151"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,9 +1665,9 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
@@ -3162,19 +3162,19 @@
       <c r="C149" s="12"/>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>351</v>
       </c>
       <c r="C150" s="12"/>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>352</v>
       </c>
       <c r="C151" s="12"/>

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="357">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Коментар</t>
   </si>
   <si>
-    <t>Адрес</t>
-  </si>
-  <si>
     <t>%AIW16</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>System time</t>
-  </si>
-  <si>
-    <t>%M1.5</t>
   </si>
   <si>
     <t>Auto/Hand window. 0 - Auto; 1 - Hand</t>
@@ -1088,6 +1082,18 @@
   </si>
   <si>
     <t>Ручний. Осцилятор. Ignition</t>
+  </si>
+  <si>
+    <t>Адрес HMI</t>
+  </si>
+  <si>
+    <t>Адрес PLC</t>
+  </si>
+  <si>
+    <t>%4X1.05</t>
+  </si>
+  <si>
+    <t>%MW0.5</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,25 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,26 +1293,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,1960 +1612,2165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="18" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="2" max="3" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="F3" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="F4" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>308</v>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="F5" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="F6" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="F7" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="F8" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="F11" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="F12" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="F13" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="F14" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="F19" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="F20" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="F21" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="F22" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="F23" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="F24" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="F25" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="F26" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="F27" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>309</v>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="F28" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="F29" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="F30" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="F31" s="5"/>
+        <v>220</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="F32" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="F33" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>310</v>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="F34" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="F35" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="F36" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="F37" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="F38" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="F39" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="F40" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="F41" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="F42" s="5"/>
+        <v>249</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="F43" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="F44" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="F45" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="F46" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="F47" s="5"/>
+        <v>297</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="F48" s="5"/>
+        <v>298</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="F49" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="F50" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="F51" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="F52" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="F53" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="12"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="F54" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="12"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="F55" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="12"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="F56" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="12"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="12"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="B59" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="12"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="12"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="12"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="12"/>
-    </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-    </row>
-    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" s="12"/>
-    </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="C74" s="12"/>
-    </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="12"/>
-    </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B85" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="B94" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="12"/>
-    </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="12"/>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="12"/>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="12"/>
-    </row>
-    <row r="81" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="12"/>
-    </row>
-    <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="12"/>
-    </row>
-    <row r="83" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="12"/>
-    </row>
-    <row r="84" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="12"/>
-    </row>
-    <row r="85" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" s="12"/>
-    </row>
-    <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" s="12"/>
-    </row>
-    <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="12"/>
-    </row>
-    <row r="88" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="12"/>
-    </row>
-    <row r="89" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="12"/>
-    </row>
-    <row r="90" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="12"/>
-    </row>
-    <row r="92" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="93" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="B98" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="94" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C94" s="12"/>
-    </row>
-    <row r="95" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C96" s="12"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C97" s="12"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C98" s="12"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C100" s="12"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C101" s="12"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102" s="12"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C104" s="12"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="12"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C106" s="12"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C107" s="12"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" s="12"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" s="12"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" s="12"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="12"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B112" s="12" t="s">
+      <c r="B135" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="12"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C113" s="12"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="12"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" s="12"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C116" s="12"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C117" s="12"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118" s="12"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119" s="12"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="12"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121" s="12"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C122" s="12"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="12"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C125" s="12"/>
-    </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C126" s="12"/>
-    </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="12"/>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" s="12"/>
-    </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C129" s="12"/>
-    </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C130" s="12"/>
-    </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C131" s="12"/>
-    </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C132" s="12"/>
-    </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C133" s="12"/>
-    </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C134" s="12"/>
-    </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C135" s="12"/>
-    </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C136" s="12"/>
-    </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="12"/>
-    </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" s="12"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C139" s="12"/>
-    </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="12"/>
-    </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C141" s="12"/>
-    </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142" s="12"/>
-    </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C143" s="12"/>
-    </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C144" s="12"/>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C145" s="12"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C146" s="12"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C147" s="12"/>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C148" s="12"/>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C149" s="12"/>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C150" s="12"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>352</v>
-      </c>
       <c r="C151" s="12"/>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="12"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="12"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="10"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="B156" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B157" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C155" s="10"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C156" s="10"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C157" s="10"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="10"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="10"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="10"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" s="10"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="B162" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="16"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="C163" s="16"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="16"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B164" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C164" s="16"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="C165" s="16"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="16"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" s="14"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="14"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="C168" s="14"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C169" s="14"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C170" s="14"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C171" s="14"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="B172" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C172" s="14"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="18"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B175" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C174" s="14"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="C175" s="14"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C176" s="14"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="30" t="s">
-        <v>304</v>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="B177" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B180" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="14"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="14"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="14"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="C180" s="14"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B181" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C181" s="14"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C182" s="14"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" s="14"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="s">
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B186" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C184" s="14"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B185" s="14" t="s">
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C185" s="14"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="14" t="s">
+      <c r="C187" s="14"/>
+      <c r="D187" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B188" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C186" s="14"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" s="14" t="s">
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C187" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B190" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C188" s="14"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C189" s="14"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="C190" s="14"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C191" s="14"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="14"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="8"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="8"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="8"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="8"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="381">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -377,21 +377,6 @@
     <t>Ручний. Laser T period</t>
   </si>
   <si>
-    <t>%M4.1</t>
-  </si>
-  <si>
-    <t>%M4.2</t>
-  </si>
-  <si>
-    <t>%M4.3</t>
-  </si>
-  <si>
-    <t>%M4.4</t>
-  </si>
-  <si>
-    <t>%M4.5</t>
-  </si>
-  <si>
     <t>%M4.0</t>
   </si>
   <si>
@@ -408,12 +393,6 @@
   </si>
   <si>
     <t>Ручний Y5</t>
-  </si>
-  <si>
-    <t>Ручний Y6</t>
-  </si>
-  <si>
-    <t>%M4.6</t>
   </si>
   <si>
     <t>Ручний. Струм зварювання</t>
@@ -1094,6 +1073,99 @@
   </si>
   <si>
     <t>%MW0.5</t>
+  </si>
+  <si>
+    <t>%4X5.01</t>
+  </si>
+  <si>
+    <t>%MW4.1</t>
+  </si>
+  <si>
+    <t>%MW4.2</t>
+  </si>
+  <si>
+    <t>%MW4.3</t>
+  </si>
+  <si>
+    <t>%MW4.4</t>
+  </si>
+  <si>
+    <t>%MW4.5</t>
+  </si>
+  <si>
+    <t>%4X5.02</t>
+  </si>
+  <si>
+    <t>%4X5.03</t>
+  </si>
+  <si>
+    <t>%4X5.04</t>
+  </si>
+  <si>
+    <t>%4X5.05</t>
+  </si>
+  <si>
+    <t>Ручний Y7</t>
+  </si>
+  <si>
+    <t>Ручний Y8</t>
+  </si>
+  <si>
+    <t>Ручний Y9</t>
+  </si>
+  <si>
+    <t>Ручний Y10</t>
+  </si>
+  <si>
+    <t>Ручний Y11</t>
+  </si>
+  <si>
+    <t>Ручний Y12</t>
+  </si>
+  <si>
+    <t>Ручний Y13</t>
+  </si>
+  <si>
+    <t>%4X5.07</t>
+  </si>
+  <si>
+    <t>%MW4.7</t>
+  </si>
+  <si>
+    <t>%4X5.08</t>
+  </si>
+  <si>
+    <t>%MW4.8</t>
+  </si>
+  <si>
+    <t>%4X5.09</t>
+  </si>
+  <si>
+    <t>%MW4.9</t>
+  </si>
+  <si>
+    <t>%4X5.10</t>
+  </si>
+  <si>
+    <t>%MW4.10</t>
+  </si>
+  <si>
+    <t>%4X5.11</t>
+  </si>
+  <si>
+    <t>%MW4.11</t>
+  </si>
+  <si>
+    <t>%4X5.12</t>
+  </si>
+  <si>
+    <t>%MW4.12</t>
+  </si>
+  <si>
+    <t>%4X5.13</t>
+  </si>
+  <si>
+    <t>%MW4.13</t>
   </si>
 </sst>
 </file>
@@ -1295,12 +1367,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,11 +1684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,17 +1708,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
@@ -1658,10 +1730,10 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
@@ -1671,10 +1743,10 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="21"/>
@@ -1684,7 +1756,7 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>37</v>
@@ -1736,10 +1808,10 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
@@ -1749,10 +1821,10 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="21"/>
@@ -1762,10 +1834,10 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
@@ -1775,10 +1847,10 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
@@ -1788,10 +1860,10 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -1801,10 +1873,10 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -1814,10 +1886,10 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="12" t="s">
@@ -1829,10 +1901,10 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
@@ -1844,10 +1916,10 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
@@ -1859,10 +1931,10 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="12" t="s">
@@ -1874,10 +1946,10 @@
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="21"/>
@@ -1887,10 +1959,10 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -1900,10 +1972,10 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -1913,10 +1985,10 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -1926,10 +1998,10 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -1939,10 +2011,10 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="21"/>
@@ -1952,10 +2024,10 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="21"/>
@@ -1965,10 +2037,10 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
@@ -1978,10 +2050,10 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="21"/>
@@ -1991,10 +2063,10 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
@@ -2004,10 +2076,10 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="21"/>
@@ -2017,10 +2089,10 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -2030,10 +2102,10 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
@@ -2043,10 +2115,10 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="21"/>
@@ -2056,10 +2128,10 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="21"/>
@@ -2069,10 +2141,10 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="21"/>
@@ -2082,10 +2154,10 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
@@ -2095,10 +2167,10 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="21"/>
@@ -2108,10 +2180,10 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="21"/>
@@ -2121,10 +2193,10 @@
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="21"/>
@@ -2134,10 +2206,10 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="21"/>
@@ -2147,10 +2219,10 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="21"/>
@@ -2160,10 +2232,10 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="21"/>
@@ -2173,10 +2245,10 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="21"/>
@@ -2186,10 +2258,10 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="21"/>
@@ -2199,10 +2271,10 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="21"/>
@@ -2212,10 +2284,10 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="21"/>
@@ -2225,10 +2297,10 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="21"/>
@@ -2238,10 +2310,10 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="21"/>
@@ -2251,10 +2323,10 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21"/>
@@ -2277,10 +2349,10 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21"/>
@@ -2290,10 +2362,10 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21"/>
@@ -2400,23 +2472,23 @@
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" s="28"/>
+        <v>287</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="27"/>
       <c r="D60" s="12"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C61" s="28"/>
+        <v>312</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="27"/>
       <c r="D61" s="12"/>
       <c r="G61" s="1"/>
     </row>
@@ -2467,16 +2539,16 @@
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="D67" s="27"/>
+      <c r="B67" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
@@ -2486,7 +2558,7 @@
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>31</v>
@@ -2502,7 +2574,7 @@
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>32</v>
@@ -2512,7 +2584,7 @@
     </row>
     <row r="72" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>107</v>
@@ -2532,7 +2604,7 @@
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>110</v>
@@ -2542,30 +2614,30 @@
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -2642,547 +2714,571 @@
     </row>
     <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="A87" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
+      <c r="A88" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+      <c r="A91" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="A93" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="A94" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D95" s="26"/>
+    </row>
+    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" s="26"/>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="26"/>
+    </row>
+    <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" s="26"/>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="24" t="s">
-        <v>265</v>
+      <c r="A118" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>202</v>
+      <c r="A124" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>206</v>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>272</v>
+      <c r="A133" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="24" t="s">
-        <v>256</v>
+      <c r="A134" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
-        <v>257</v>
+      <c r="A135" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="24" t="s">
-        <v>266</v>
+      <c r="A136" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
-        <v>258</v>
+      <c r="A137" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
-        <v>259</v>
+      <c r="A138" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>267</v>
@@ -3191,582 +3287,642 @@
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>271</v>
+      <c r="A140" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>276</v>
+      <c r="A141" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>278</v>
+      <c r="A142" s="24" t="s">
+        <v>259</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>279</v>
+      <c r="A143" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>288</v>
+      <c r="A144" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
-      <c r="B152" s="12"/>
+      <c r="A152" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="17"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B168" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B169" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B170" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14" t="s">
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
+      <c r="A173" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="23" t="s">
-        <v>33</v>
+      <c r="A174" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A175" s="14"/>
       <c r="B175" s="14" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="A176" s="14"/>
       <c r="B176" s="14" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
-        <v>302</v>
-      </c>
+      <c r="A177" s="14"/>
       <c r="B177" s="14" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
-        <v>291</v>
+      <c r="A180" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
-        <v>40</v>
+      <c r="A182" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="15" t="s">
-        <v>58</v>
+      <c r="A183" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
-        <v>51</v>
+      <c r="A185" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C187" s="14"/>
-      <c r="D187" s="14" t="s">
-        <v>270</v>
-      </c>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
-        <v>54</v>
+      <c r="A188" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
-        <v>55</v>
+      <c r="A189" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
+      <c r="A191" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="B191" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
+      <c r="D193" s="14" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
     </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+    </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="8"/>
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
-    </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="3"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="389">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -845,22 +845,10 @@
     <t>Ручний. Старт/Стоп Лазер</t>
   </si>
   <si>
-    <t>%VW18</t>
-  </si>
-  <si>
     <t>Ручний. Швидкість под. дроту</t>
   </si>
   <si>
     <t>Автомат. Швидкість под. дроту</t>
-  </si>
-  <si>
-    <t>%VW16</t>
-  </si>
-  <si>
-    <t>%M11.2</t>
-  </si>
-  <si>
-    <t>%M11.3</t>
   </si>
   <si>
     <t>%M11.4</t>
@@ -1166,6 +1154,42 @@
   </si>
   <si>
     <t>%MW4.13</t>
+  </si>
+  <si>
+    <t>Ручний пуск порошку</t>
+  </si>
+  <si>
+    <t>%4X11</t>
+  </si>
+  <si>
+    <t>%MW10</t>
+  </si>
+  <si>
+    <t>Ручний. Швидкість под. порошку</t>
+  </si>
+  <si>
+    <t>%4X15</t>
+  </si>
+  <si>
+    <t>%MW14</t>
+  </si>
+  <si>
+    <t>%4X19_00</t>
+  </si>
+  <si>
+    <t>%4X19_01</t>
+  </si>
+  <si>
+    <t>%4X19_02</t>
+  </si>
+  <si>
+    <t>%MW18.0</t>
+  </si>
+  <si>
+    <t>%MW18.1</t>
+  </si>
+  <si>
+    <t>%MW18.2</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1374,6 +1398,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1684,11 +1715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92:C98"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -1730,49 +1761,51 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="22"/>
+        <v>275</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="31"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="31"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="21"/>
@@ -1782,10 +1815,10 @@
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="21"/>
@@ -1795,10 +1828,10 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="21"/>
@@ -1808,10 +1841,10 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
@@ -1821,10 +1854,10 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="21"/>
@@ -1834,10 +1867,10 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
@@ -1847,10 +1880,10 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
@@ -1860,10 +1893,10 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -1873,10 +1906,10 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -1885,26 +1918,24 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>174</v>
+      <c r="A15" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="D15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
@@ -1916,10 +1947,10 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
@@ -1931,10 +1962,10 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="12" t="s">
@@ -1945,24 +1976,26 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>183</v>
+      <c r="A19" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -1972,10 +2005,10 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -1985,10 +2018,10 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -1998,10 +2031,10 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2011,10 +2044,10 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="21"/>
@@ -2024,10 +2057,10 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="21"/>
@@ -2037,10 +2070,10 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
@@ -2050,10 +2083,10 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="21"/>
@@ -2063,10 +2096,10 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
@@ -2076,10 +2109,10 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="21"/>
@@ -2089,10 +2122,10 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -2102,10 +2135,10 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
@@ -2115,10 +2148,10 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="21"/>
@@ -2128,10 +2161,10 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="21"/>
@@ -2141,10 +2174,10 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="21"/>
@@ -2154,10 +2187,10 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
@@ -2167,10 +2200,10 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="21"/>
@@ -2180,10 +2213,10 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="21"/>
@@ -2193,10 +2226,10 @@
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="21"/>
@@ -2206,10 +2239,10 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="21"/>
@@ -2219,10 +2252,10 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="21"/>
@@ -2232,10 +2265,10 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="21"/>
@@ -2245,10 +2278,10 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="21"/>
@@ -2258,10 +2291,10 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="21"/>
@@ -2271,10 +2304,10 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="21"/>
@@ -2284,10 +2317,10 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="21"/>
@@ -2297,10 +2330,10 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="21"/>
@@ -2310,10 +2343,10 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="21"/>
@@ -2323,10 +2356,10 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21"/>
@@ -2336,10 +2369,10 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21"/>
@@ -2349,10 +2382,10 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21"/>
@@ -2362,10 +2395,10 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21"/>
@@ -2375,10 +2408,10 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21"/>
@@ -2388,23 +2421,23 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="21"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="12"/>
@@ -2414,10 +2447,10 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="12"/>
@@ -2427,10 +2460,10 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="12"/>
@@ -2440,1204 +2473,1217 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="12"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="12"/>
-      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="12"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="27"/>
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="22"/>
       <c r="D60" s="12"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="12"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+    <row r="62" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="12"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D67" s="26"/>
-    </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B68" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="12"/>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>198</v>
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>109</v>
+    <row r="73" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>187</v>
+      <c r="A75" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="D87" s="26"/>
+      <c r="A87" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="A99" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>332</v>
+        <v>129</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
-        <v>258</v>
+      <c r="A124" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>180</v>
+      <c r="A125" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>334</v>
+        <v>145</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>199</v>
+      <c r="A134" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>236</v>
+      <c r="A135" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>337</v>
+        <v>149</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>265</v>
+      <c r="A139" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="24" t="s">
-        <v>249</v>
+      <c r="A140" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>261</v>
+      <c r="A145" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="A151" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" s="26"/>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
+      <c r="A152" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D152" s="26"/>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
+      <c r="A153" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D153" s="26"/>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="B158" s="12"/>
+      <c r="A158" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="17"/>
-      <c r="B159" s="12"/>
+      <c r="A159" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="17"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="17"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
+      <c r="A168" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
+      <c r="A169" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14" t="s">
+      <c r="A172" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="B175" s="14" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="B176" s="14" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
@@ -3645,216 +3691,220 @@
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="A178" s="14"/>
       <c r="B178" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="23" t="s">
-        <v>33</v>
+      <c r="A180" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="s">
-        <v>34</v>
+      <c r="A182" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="25" t="s">
-        <v>295</v>
+      <c r="A183" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
-        <v>285</v>
+      <c r="A185" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
-        <v>40</v>
+      <c r="A188" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="15" t="s">
-        <v>58</v>
+      <c r="A189" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
-        <v>50</v>
+      <c r="A190" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="14" t="s">
-        <v>57</v>
+      <c r="A193" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193" s="14"/>
-      <c r="D193" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
+      <c r="D195" s="14" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="B197" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
     </row>
@@ -3870,59 +3920,71 @@
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="A240" s="8"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="391">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -89,18 +89,6 @@
     <t>%Q0.2</t>
   </si>
   <si>
-    <t>%M1.1</t>
-  </si>
-  <si>
-    <t>%M1.2</t>
-  </si>
-  <si>
-    <t>%M1.3</t>
-  </si>
-  <si>
-    <t>%M1.4</t>
-  </si>
-  <si>
     <t>Technological parameters</t>
   </si>
   <si>
@@ -116,12 +104,6 @@
     <t>Auto/Hand window. 0 - Auto; 1 - Hand</t>
   </si>
   <si>
-    <t>%M1.7</t>
-  </si>
-  <si>
-    <t>%M2.1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t>Power (2V - 10V)</t>
   </si>
   <si>
-    <t>%VW20</t>
-  </si>
-  <si>
     <t>%Q0.7</t>
   </si>
   <si>
@@ -344,9 +323,6 @@
     <t>Підтвердження вибору вікна параметрів техпроц</t>
   </si>
   <si>
-    <t>%M2.2</t>
-  </si>
-  <si>
     <t>%M2.3</t>
   </si>
   <si>
@@ -359,27 +335,12 @@
     <t>РЕАЛІЗУВАТИ</t>
   </si>
   <si>
-    <t>%VW22</t>
-  </si>
-  <si>
-    <t>%VW24</t>
-  </si>
-  <si>
-    <t>%VW26</t>
-  </si>
-  <si>
     <t>Ручний. Laser T pulse</t>
   </si>
   <si>
     <t>Ручний. Laser T pause</t>
   </si>
   <si>
-    <t>Ручний. Laser T period</t>
-  </si>
-  <si>
-    <t>%M4.0</t>
-  </si>
-  <si>
     <t>Ручний Y1</t>
   </si>
   <si>
@@ -401,12 +362,6 @@
     <t>Ручний. Струм різання</t>
   </si>
   <si>
-    <t>%VW28</t>
-  </si>
-  <si>
-    <t>%VW30</t>
-  </si>
-  <si>
     <t>%M7.4</t>
   </si>
   <si>
@@ -476,18 +431,6 @@
     <t>%M4.7</t>
   </si>
   <si>
-    <t>%M3.7</t>
-  </si>
-  <si>
-    <t>%M2.5</t>
-  </si>
-  <si>
-    <t>%M2.6</t>
-  </si>
-  <si>
-    <t>%M2.7</t>
-  </si>
-  <si>
     <t>Перевірка газу Авто. Лазер Plasma gas</t>
   </si>
   <si>
@@ -809,31 +752,10 @@
     <t>Автомат. Допоміжна змінна для індикації аларм</t>
   </si>
   <si>
-    <t>%M10.6</t>
-  </si>
-  <si>
     <t>0 - Weld; 1 - Cut.</t>
   </si>
   <si>
-    <t>Ручний. Перемикач контактора Welding/Cutting</t>
-  </si>
-  <si>
-    <t>Ручний. Дозвіл-галочка на пуск ДЖ Welding</t>
-  </si>
-  <si>
-    <t>%M11.0</t>
-  </si>
-  <si>
     <t>%M9.7</t>
-  </si>
-  <si>
-    <t>%M10.7</t>
-  </si>
-  <si>
-    <t>Ручний. Дозвіл-галочка на пуск ДЖ Cutting</t>
-  </si>
-  <si>
-    <t>%M11.1</t>
   </si>
   <si>
     <t>Ручний. Галочка - готовність пуску ДЖ звар</t>
@@ -910,9 +832,6 @@
     <t>АВТОМАТ. IN POCESS Блокування переходу в ручний</t>
   </si>
   <si>
-    <t>Ручний. Pilot current</t>
-  </si>
-  <si>
     <t>Автомат. Plasma_Welding. Pilot current</t>
   </si>
   <si>
@@ -925,24 +844,6 @@
     <t>Форсований струм при переході пост - змінний</t>
   </si>
   <si>
-    <t>%M12.0</t>
-  </si>
-  <si>
-    <t>Режим переходу з постійного струму на змінний</t>
-  </si>
-  <si>
-    <t>%M11.5</t>
-  </si>
-  <si>
-    <t>Вибір в автоматі режиму постійний / змінний</t>
-  </si>
-  <si>
-    <t>Ручний режим, перемикач постійний / змінний</t>
-  </si>
-  <si>
-    <t>%M11.6</t>
-  </si>
-  <si>
     <t>Час форсування газу при переході пост - змінний</t>
   </si>
   <si>
@@ -1039,18 +940,6 @@
     <t>%V257.2</t>
   </si>
   <si>
-    <t>%M12.1</t>
-  </si>
-  <si>
-    <t>%M12.2</t>
-  </si>
-  <si>
-    <t>Ручний. Перемикач керування черговою дугою</t>
-  </si>
-  <si>
-    <t>Ручний. Осцилятор. Ignition</t>
-  </si>
-  <si>
     <t>Адрес HMI</t>
   </si>
   <si>
@@ -1190,6 +1079,123 @@
   </si>
   <si>
     <t>%MW18.2</t>
+  </si>
+  <si>
+    <t>%4X1.01</t>
+  </si>
+  <si>
+    <t>%4X1.02</t>
+  </si>
+  <si>
+    <t>%4X1.03</t>
+  </si>
+  <si>
+    <t>%4X1.04</t>
+  </si>
+  <si>
+    <t>%MW0.1</t>
+  </si>
+  <si>
+    <t>%MW0.2</t>
+  </si>
+  <si>
+    <t>%MW0.3</t>
+  </si>
+  <si>
+    <t>%MW0.4</t>
+  </si>
+  <si>
+    <t>%4X21</t>
+  </si>
+  <si>
+    <t>%4X23</t>
+  </si>
+  <si>
+    <t>%MW20</t>
+  </si>
+  <si>
+    <t>Ручний. Laser Power</t>
+  </si>
+  <si>
+    <t>%4X1.06</t>
+  </si>
+  <si>
+    <t>%MW0.6</t>
+  </si>
+  <si>
+    <t>%4X1.07</t>
+  </si>
+  <si>
+    <t>%MW0.7</t>
+  </si>
+  <si>
+    <t>%MW22</t>
+  </si>
+  <si>
+    <t>%4X27</t>
+  </si>
+  <si>
+    <t>%MW26</t>
+  </si>
+  <si>
+    <t>%4X1.08</t>
+  </si>
+  <si>
+    <t>%MW0.8</t>
+  </si>
+  <si>
+    <t>%4X13</t>
+  </si>
+  <si>
+    <t>%4X17</t>
+  </si>
+  <si>
+    <t>%MW16</t>
+  </si>
+  <si>
+    <t>%MW12</t>
+  </si>
+  <si>
+    <t>%4X1.09</t>
+  </si>
+  <si>
+    <t>%MW0.9</t>
+  </si>
+  <si>
+    <t>%4X1.10</t>
+  </si>
+  <si>
+    <t>%MW0.10</t>
+  </si>
+  <si>
+    <t>%4X1.11</t>
+  </si>
+  <si>
+    <t>%MW0.11</t>
+  </si>
+  <si>
+    <t>%4X1.12</t>
+  </si>
+  <si>
+    <t>%MW0.12</t>
+  </si>
+  <si>
+    <t>%4X1.13</t>
+  </si>
+  <si>
+    <t>%MW0.13</t>
+  </si>
+  <si>
+    <t>%4X1.14</t>
+  </si>
+  <si>
+    <t>%MW0.14</t>
+  </si>
+  <si>
+    <t>%4X1.15</t>
+  </si>
+  <si>
+    <t>%MW0.15</t>
   </si>
 </sst>
 </file>
@@ -1395,9 +1401,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1405,6 +1408,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1715,11 +1721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,17 +1745,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1772,105 +1778,115 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="30"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>343</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="30"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="30"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="30"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="30"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="30"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
@@ -1880,10 +1896,10 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
@@ -1893,10 +1909,10 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -1906,10 +1922,10 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -1918,28 +1934,30 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>171</v>
+      <c r="A15" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1947,14 +1965,14 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1962,40 +1980,38 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>177</v>
+      <c r="A19" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="D19" s="21"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -2005,10 +2021,10 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -2018,10 +2034,10 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2031,10 +2047,10 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2044,10 +2060,10 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="21"/>
@@ -2057,10 +2073,10 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="21"/>
@@ -2070,10 +2086,10 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
@@ -2083,10 +2099,10 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="21"/>
@@ -2096,10 +2112,10 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
@@ -2109,10 +2125,10 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="21"/>
@@ -2122,10 +2138,10 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -2135,10 +2151,10 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
@@ -2148,10 +2164,10 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="21"/>
@@ -2161,10 +2177,10 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="21"/>
@@ -2174,10 +2190,10 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="21"/>
@@ -2187,10 +2203,10 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
@@ -2200,10 +2216,10 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="21"/>
@@ -2213,10 +2229,10 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="21"/>
@@ -2226,10 +2242,10 @@
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="21"/>
@@ -2239,10 +2255,10 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="21"/>
@@ -2252,10 +2268,10 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="21"/>
@@ -2265,10 +2281,10 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="21"/>
@@ -2278,10 +2294,10 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="21"/>
@@ -2291,10 +2307,10 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="21"/>
@@ -2304,10 +2320,10 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="21"/>
@@ -2317,10 +2333,10 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="21"/>
@@ -2330,10 +2346,10 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="21"/>
@@ -2343,10 +2359,10 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="21"/>
@@ -2356,10 +2372,10 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21"/>
@@ -2369,10 +2385,10 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21"/>
@@ -2382,10 +2398,10 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21"/>
@@ -2395,10 +2411,10 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21"/>
@@ -2408,10 +2424,10 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21"/>
@@ -2421,23 +2437,23 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="21"/>
+      <c r="D53" s="12"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="12"/>
@@ -2447,10 +2463,10 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="12"/>
@@ -2460,10 +2476,10 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="12"/>
@@ -2473,621 +2489,638 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="12"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="12"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="12"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="22"/>
+    <row r="60" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="27"/>
       <c r="D60" s="12"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="12"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" s="26"/>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="26"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="12"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-    </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>30</v>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A69" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="A71" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" s="26"/>
     </row>
     <row r="73" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-    </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-    </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
+      <c r="A73" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>70</v>
+      <c r="A82" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>71</v>
+      <c r="A83" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D88" s="26"/>
+      <c r="A88" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D89" s="26"/>
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D90" s="26"/>
+      <c r="A90" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>358</v>
+        <v>110</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="A101" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" s="26"/>
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -3097,7 +3130,7 @@
         <v>140</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -3107,710 +3140,712 @@
         <v>141</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
-        <v>258</v>
+      <c r="A125" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>182</v>
+      <c r="A128" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>199</v>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>237</v>
+      <c r="A138" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>265</v>
+      <c r="A140" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
-        <v>249</v>
+      <c r="A141" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
-        <v>250</v>
+      <c r="A142" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>261</v>
+      <c r="A146" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>264</v>
+      <c r="A147" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
-        <v>271</v>
+      <c r="A149" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D150" s="26"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="29" t="s">
-        <v>277</v>
+      <c r="A151" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D151" s="26"/>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29" t="s">
-        <v>278</v>
+      <c r="A152" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="D152" s="26"/>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D153" s="26"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="A154" s="17"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>302</v>
-      </c>
+      <c r="A155" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="17"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="17"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>75</v>
+      <c r="A163" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
+      <c r="A164" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
+      <c r="A165" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
+      <c r="A166" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
+      <c r="A168" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
+      <c r="A169" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
+      <c r="A171" s="14"/>
+      <c r="B171" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
+      <c r="A173" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="14" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
+      <c r="A175" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="B177" s="14" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="25" t="s">
+        <v>265</v>
+      </c>
       <c r="B178" s="14" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
+      <c r="A179" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="B179" s="14" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
+      <c r="A181" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
-        <v>33</v>
+      <c r="A182" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="14" t="s">
-        <v>35</v>
+      <c r="A183" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="s">
-        <v>34</v>
+      <c r="A184" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="25" t="s">
-        <v>291</v>
+      <c r="A185" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="14" t="s">
-        <v>290</v>
+      <c r="A186" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
+      <c r="D189" s="14" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="15" t="s">
-        <v>40</v>
+      <c r="A190" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>39</v>
@@ -3819,172 +3854,113 @@
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="15" t="s">
-        <v>58</v>
+      <c r="A191" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="A192" s="14"/>
       <c r="B192" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="A193" s="14"/>
       <c r="B193" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="14"/>
-      <c r="D195" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-    </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
+      <c r="A202" s="7"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="8"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="7"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
+      <c r="A236" s="8"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="406">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Ручний Y5</t>
-  </si>
-  <si>
-    <t>Ручний. Струм зварювання</t>
   </si>
   <si>
     <t>Ручний. Струм різання</t>
@@ -1196,6 +1193,54 @@
   </si>
   <si>
     <t>%MW0.15</t>
+  </si>
+  <si>
+    <t>%4X25</t>
+  </si>
+  <si>
+    <t>%MW24</t>
+  </si>
+  <si>
+    <t>%4X31</t>
+  </si>
+  <si>
+    <t>%MW30</t>
+  </si>
+  <si>
+    <t>Ручний. CAN-задання плазм. Газу</t>
+  </si>
+  <si>
+    <t>Ручний. CAN-задання зах. Газу</t>
+  </si>
+  <si>
+    <t>Ручний. CAN-задання струму зварювання</t>
+  </si>
+  <si>
+    <t>%4X1.00</t>
+  </si>
+  <si>
+    <t>%MW0.0</t>
+  </si>
+  <si>
+    <t>Ручний. CAN-Simulation welding</t>
+  </si>
+  <si>
+    <t>Ручний - старт частотного клапана</t>
+  </si>
+  <si>
+    <t>%4X5.14</t>
+  </si>
+  <si>
+    <t>%MW4.14</t>
+  </si>
+  <si>
+    <t>Ручний. Частота клапана Festo</t>
+  </si>
+  <si>
+    <t>%MW32</t>
+  </si>
+  <si>
+    <t>%4X33</t>
   </si>
 </sst>
 </file>
@@ -1721,11 +1766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -1767,7 +1812,7 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1778,13 +1823,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>342</v>
       </c>
       <c r="D4" s="30"/>
       <c r="G4" s="5"/>
@@ -1793,13 +1838,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>344</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>345</v>
       </c>
       <c r="D5" s="30"/>
       <c r="G5" s="5"/>
@@ -1808,13 +1853,13 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D6" s="30"/>
       <c r="G6" s="5"/>
@@ -1826,10 +1871,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7" s="30"/>
       <c r="G7" s="5"/>
@@ -1841,10 +1886,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>370</v>
       </c>
       <c r="D8" s="30"/>
       <c r="G8" s="5"/>
@@ -1853,13 +1898,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>111</v>
+        <v>396</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="30"/>
       <c r="G9" s="5"/>
@@ -1868,13 +1913,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>374</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>375</v>
       </c>
       <c r="D10" s="30"/>
       <c r="G10" s="5"/>
@@ -1882,50 +1927,56 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="30"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="30"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -1934,56 +1985,50 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>155</v>
+      <c r="A15" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="D15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>156</v>
+      <c r="A16" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="D16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>157</v>
+      <c r="A17" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="D17" s="21"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="12" t="s">
@@ -1994,50 +2039,56 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>164</v>
+      <c r="A19" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>166</v>
+      <c r="A20" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>173</v>
+      <c r="A21" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="21"/>
@@ -2047,10 +2098,10 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
@@ -2060,10 +2111,10 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="21"/>
@@ -2073,10 +2124,10 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="21"/>
@@ -2086,10 +2137,10 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="21"/>
@@ -2099,10 +2150,10 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="21"/>
@@ -2112,10 +2163,10 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
@@ -2125,10 +2176,10 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="21"/>
@@ -2138,10 +2189,10 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -2151,10 +2202,10 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="21"/>
@@ -2164,10 +2215,10 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="21"/>
@@ -2177,10 +2228,10 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="21"/>
@@ -2190,10 +2241,10 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="21"/>
@@ -2203,10 +2254,10 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="21"/>
@@ -2216,10 +2267,10 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="21"/>
@@ -2229,10 +2280,10 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="21"/>
@@ -2242,10 +2293,10 @@
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="21"/>
@@ -2255,10 +2306,10 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="21"/>
@@ -2268,10 +2319,10 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="21"/>
@@ -2281,10 +2332,10 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="21"/>
@@ -2294,10 +2345,10 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="21"/>
@@ -2307,10 +2358,10 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="21"/>
@@ -2320,10 +2371,10 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="21"/>
@@ -2333,10 +2384,10 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="21"/>
@@ -2346,10 +2397,10 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="21"/>
@@ -2359,10 +2410,10 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="21"/>
@@ -2372,10 +2423,10 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21"/>
@@ -2385,10 +2436,10 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21"/>
@@ -2398,10 +2449,10 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21"/>
@@ -2411,10 +2462,10 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21"/>
@@ -2424,10 +2475,10 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21"/>
@@ -2437,49 +2488,49 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="21"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="21"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="21"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="12"/>
@@ -2489,1478 +2540,1541 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="12"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="12"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="12"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="27"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="22"/>
       <c r="D60" s="12"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C61" s="27"/>
+    </row>
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="22"/>
       <c r="D61" s="12"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="22"/>
       <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D64" s="26"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="12"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="12"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D65" s="26"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="D67" s="26"/>
     </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>178</v>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="B69" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D69" s="26"/>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D70" s="26"/>
-    </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D71" s="26"/>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>382</v>
       </c>
       <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
-        <v>246</v>
+      <c r="A75" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B77" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D77" s="26"/>
-    </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-    </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-    </row>
-    <row r="81" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+    <row r="82" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+    </row>
+    <row r="84" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+    </row>
+    <row r="85" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+    </row>
+    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>63</v>
+      <c r="A87" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D91" s="26"/>
+      <c r="A91" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92" s="26"/>
+      <c r="A92" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" s="26"/>
+      <c r="A93" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94" s="26"/>
+      <c r="A94" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>321</v>
+        <v>109</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B102" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" s="26"/>
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="26"/>
+    </row>
+    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D104" s="26"/>
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" s="26"/>
+    </row>
+    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C102" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="D102" s="26"/>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="26"/>
+    </row>
+    <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D107" s="26"/>
+    </row>
+    <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
-        <v>239</v>
+      <c r="A128" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>218</v>
+      <c r="A133" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>180</v>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>219</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
-        <v>230</v>
+      <c r="A143" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
-        <v>231</v>
+      <c r="A144" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
-        <v>240</v>
+      <c r="A145" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
-        <v>232</v>
+      <c r="A146" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
-        <v>233</v>
+      <c r="A147" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>242</v>
+      <c r="A148" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28" t="s">
-        <v>251</v>
+      <c r="A149" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D150" s="26"/>
+      <c r="A150" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D151" s="26"/>
+      <c r="A151" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="D152" s="26"/>
+      <c r="A152" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
+      <c r="A153" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="B153" s="12" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="17"/>
-      <c r="B154" s="12"/>
+      <c r="A154" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D157" s="26"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="17"/>
+      <c r="B158" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
-        <v>78</v>
+      <c r="A163" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B169" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B170" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="16" t="s">
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B171" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
+      <c r="B172" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
+      <c r="A174" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="B174" s="14" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A176" s="14"/>
       <c r="B176" s="14" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="A177" s="14"/>
       <c r="B177" s="14" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
-        <v>265</v>
+      <c r="A178" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
-        <v>264</v>
-      </c>
+      <c r="A179" s="18"/>
       <c r="B179" s="14" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
+      <c r="A180" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="15" t="s">
-        <v>33</v>
+      <c r="A183" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="15" t="s">
-        <v>51</v>
+      <c r="A184" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
-        <v>44</v>
+      <c r="A186" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
-        <v>50</v>
+      <c r="A188" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
-        <v>47</v>
+      <c r="A189" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C189" s="14"/>
-      <c r="D189" s="14" t="s">
-        <v>243</v>
-      </c>
+      <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
-        <v>49</v>
+      <c r="A191" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="B192" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B193" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
+      <c r="D194" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="14"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
     </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+    </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
+      <c r="A234" s="7"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="3"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="497">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -194,21 +194,6 @@
     <t>%M8.3</t>
   </si>
   <si>
-    <t>%M8.6</t>
-  </si>
-  <si>
-    <t>%M9.0</t>
-  </si>
-  <si>
-    <t>%M9.1</t>
-  </si>
-  <si>
-    <t>%M9.2</t>
-  </si>
-  <si>
-    <t>%M4.7</t>
-  </si>
-  <si>
     <t>Перевірка газу Авто. Лазер Plasma gas</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
     <t>Автомат. Hybrid_Cutting. Laser T period</t>
   </si>
   <si>
-    <t>АВТО. ПЕРЕМИКАЧ Local/Remote start</t>
-  </si>
-  <si>
     <t>Автомат. Готовність гібридного зварювання</t>
   </si>
   <si>
@@ -542,9 +524,6 @@
     <t>Ручний. Швидкість под. дроту</t>
   </si>
   <si>
-    <t>Автомат. Швидкість под. дроту</t>
-  </si>
-  <si>
     <t>Ручний напрямок под дроту</t>
   </si>
   <si>
@@ -1125,6 +1104,414 @@
   </si>
   <si>
     <t>%MW18.9</t>
+  </si>
+  <si>
+    <t>%MW28</t>
+  </si>
+  <si>
+    <t>Ручний. Laser duty - параметр функції частоти лазера</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y1</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y2</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y3</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y4</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y5</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y7</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y8</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y9</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y10</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y11</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y12</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Y13</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Freq gas</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Wire</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір powder</t>
+  </si>
+  <si>
+    <t>%4X3.01</t>
+  </si>
+  <si>
+    <t>%4X3.02</t>
+  </si>
+  <si>
+    <t>%4X3.03</t>
+  </si>
+  <si>
+    <t>%4X3.04</t>
+  </si>
+  <si>
+    <t>%4X3.00</t>
+  </si>
+  <si>
+    <t>%4X3.05</t>
+  </si>
+  <si>
+    <t>%4X3.06</t>
+  </si>
+  <si>
+    <t>%4X3.07</t>
+  </si>
+  <si>
+    <t>%4X3.08</t>
+  </si>
+  <si>
+    <t>%4X3.09</t>
+  </si>
+  <si>
+    <t>%4X3.10</t>
+  </si>
+  <si>
+    <t>%4X3.11</t>
+  </si>
+  <si>
+    <t>%4X3.12</t>
+  </si>
+  <si>
+    <t>%4X3.13</t>
+  </si>
+  <si>
+    <t>%4X3.14</t>
+  </si>
+  <si>
+    <t>%MW2.0</t>
+  </si>
+  <si>
+    <t>%MW2.1</t>
+  </si>
+  <si>
+    <t>%MW2.2</t>
+  </si>
+  <si>
+    <t>%MW2.3</t>
+  </si>
+  <si>
+    <t>%MW2.4</t>
+  </si>
+  <si>
+    <t>%MW2.5</t>
+  </si>
+  <si>
+    <t>%MW2.6</t>
+  </si>
+  <si>
+    <t>%MW2.7</t>
+  </si>
+  <si>
+    <t>%MW2.8</t>
+  </si>
+  <si>
+    <t>%MW2.9</t>
+  </si>
+  <si>
+    <t>%MW2.10</t>
+  </si>
+  <si>
+    <t>%MW2.11</t>
+  </si>
+  <si>
+    <t>%MW2.12</t>
+  </si>
+  <si>
+    <t>%MW2.13</t>
+  </si>
+  <si>
+    <t>%MW2.14</t>
+  </si>
+  <si>
+    <t>%MW34.0</t>
+  </si>
+  <si>
+    <t>%MW34.1</t>
+  </si>
+  <si>
+    <t>%MW34.2</t>
+  </si>
+  <si>
+    <t>%MW34.3</t>
+  </si>
+  <si>
+    <t>%MW34.4</t>
+  </si>
+  <si>
+    <t>%MW34.5</t>
+  </si>
+  <si>
+    <t>%MW34.6</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Lazer</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Welding</t>
+  </si>
+  <si>
+    <t>Автомат. Вибір Cutting</t>
+  </si>
+  <si>
+    <t>Автомат. Local/Remote</t>
+  </si>
+  <si>
+    <t>Автомат. SimuWelding</t>
+  </si>
+  <si>
+    <t>%4X35.00</t>
+  </si>
+  <si>
+    <t>%4X35.01</t>
+  </si>
+  <si>
+    <t>%4X35.02</t>
+  </si>
+  <si>
+    <t>%4X35.03</t>
+  </si>
+  <si>
+    <t>%4X35.04</t>
+  </si>
+  <si>
+    <t>%4X35.05</t>
+  </si>
+  <si>
+    <t>%4X35.06</t>
+  </si>
+  <si>
+    <t>%4X35.07</t>
+  </si>
+  <si>
+    <t>%MW34.7</t>
+  </si>
+  <si>
+    <t>%4X35.08</t>
+  </si>
+  <si>
+    <t>%MW34.8</t>
+  </si>
+  <si>
+    <t>%4X37</t>
+  </si>
+  <si>
+    <t>%4X39</t>
+  </si>
+  <si>
+    <t>Auto. Laser power</t>
+  </si>
+  <si>
+    <t>Auto. Laser freq</t>
+  </si>
+  <si>
+    <t>Auto. Laser with</t>
+  </si>
+  <si>
+    <t>Auto. Weld cur</t>
+  </si>
+  <si>
+    <t>Auto. Weld shield gas</t>
+  </si>
+  <si>
+    <t>Auto. Weld plasma gas</t>
+  </si>
+  <si>
+    <t>Auto. Cut current</t>
+  </si>
+  <si>
+    <t>Auto. Wire spd</t>
+  </si>
+  <si>
+    <t>Auto. Powder spd</t>
+  </si>
+  <si>
+    <t>Auto. Gas freq</t>
+  </si>
+  <si>
+    <t>%4X41</t>
+  </si>
+  <si>
+    <t>%4X43</t>
+  </si>
+  <si>
+    <t>%4X45</t>
+  </si>
+  <si>
+    <t>%4X47</t>
+  </si>
+  <si>
+    <t>%4X49</t>
+  </si>
+  <si>
+    <t>%4X51</t>
+  </si>
+  <si>
+    <t>%4X53</t>
+  </si>
+  <si>
+    <t>%4X55</t>
+  </si>
+  <si>
+    <t>%MW36</t>
+  </si>
+  <si>
+    <t>%MW38</t>
+  </si>
+  <si>
+    <t>%MW40</t>
+  </si>
+  <si>
+    <t>%MW42</t>
+  </si>
+  <si>
+    <t>%MW44</t>
+  </si>
+  <si>
+    <t>%MW46</t>
+  </si>
+  <si>
+    <t>%MW48</t>
+  </si>
+  <si>
+    <t>%MW50</t>
+  </si>
+  <si>
+    <t>%MW52</t>
+  </si>
+  <si>
+    <t>%MW54</t>
+  </si>
+  <si>
+    <t>%4X57</t>
+  </si>
+  <si>
+    <t>%MW56</t>
+  </si>
+  <si>
+    <t>%4X59</t>
+  </si>
+  <si>
+    <t>%MW58</t>
+  </si>
+  <si>
+    <t>%4X61</t>
+  </si>
+  <si>
+    <t>%MW60</t>
+  </si>
+  <si>
+    <t>%4X63</t>
+  </si>
+  <si>
+    <t>%MW62</t>
+  </si>
+  <si>
+    <t>%4X65</t>
+  </si>
+  <si>
+    <t>%MW64</t>
+  </si>
+  <si>
+    <t>%4X67</t>
+  </si>
+  <si>
+    <t>%MW66</t>
+  </si>
+  <si>
+    <t>%4X69</t>
+  </si>
+  <si>
+    <t>%MW68</t>
+  </si>
+  <si>
+    <t>%4X71</t>
+  </si>
+  <si>
+    <t>%MW70</t>
+  </si>
+  <si>
+    <t>%4X73</t>
+  </si>
+  <si>
+    <t>%MW72</t>
+  </si>
+  <si>
+    <t>%4X75</t>
+  </si>
+  <si>
+    <t>%MW74</t>
+  </si>
+  <si>
+    <t>%4X77</t>
+  </si>
+  <si>
+    <t>%MW76</t>
+  </si>
+  <si>
+    <t>%4X79</t>
+  </si>
+  <si>
+    <t>%MW78</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
   </si>
 </sst>
 </file>
@@ -1616,11 +2003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -1661,25 +2048,29 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D4" s="22"/>
       <c r="G4" s="5"/>
@@ -1688,13 +2079,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22"/>
       <c r="G5" s="5"/>
@@ -1703,13 +2094,13 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D6" s="22"/>
       <c r="G6" s="5"/>
@@ -1721,10 +2112,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>282</v>
       </c>
       <c r="D7" s="22"/>
       <c r="G7" s="5"/>
@@ -1736,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D8" s="22"/>
       <c r="G8" s="5"/>
@@ -1748,13 +2139,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D9" s="22"/>
       <c r="G9" s="5"/>
@@ -1763,13 +2154,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D10" s="22"/>
       <c r="G10" s="5"/>
@@ -1778,13 +2169,13 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D11" s="22"/>
       <c r="G11" s="5"/>
@@ -1793,13 +2184,13 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D12" s="22"/>
       <c r="G12" s="5"/>
@@ -1808,13 +2199,11 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>320</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="D13" s="22"/>
       <c r="G13" s="5"/>
@@ -1822,555 +2211,629 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="22"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="22"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="22"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="22"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="22"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="22"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="22"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="22"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="22"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="22"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" s="22"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="22"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="22"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="22"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="22"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" s="22"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="D34" s="22"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" s="22"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D36" s="22"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" s="22"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D38" s="22"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D39" s="22"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D40" s="22"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" s="22"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="22"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="22"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="22"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="22"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" s="22"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D48" s="22"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" s="22"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D50" s="22"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
+      <c r="A51" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51" s="22"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D52" s="22"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D53" s="22"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D54" s="22"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>21</v>
+        <v>492</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="D55" s="22"/>
       <c r="G55" s="5"/>
@@ -2379,1241 +2842,1816 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>323</v>
+        <v>477</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D56" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="D56" s="22"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>23</v>
+        <v>494</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>325</v>
+        <v>479</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D57" s="19"/>
+        <v>480</v>
+      </c>
+      <c r="D57" s="22"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>24</v>
+        <v>495</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D58" s="19"/>
+        <v>482</v>
+      </c>
+      <c r="D58" s="22"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>329</v>
+        <v>483</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="19"/>
+        <v>484</v>
+      </c>
+      <c r="D59" s="22"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="16"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="16"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="16"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="16"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="16"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="16"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="16"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="16"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="16"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="16"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="17"/>
+      <c r="D98" s="16"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="17"/>
+      <c r="D99" s="16"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="D110" s="19"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" s="21" t="s">
+      <c r="C111" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="19"/>
-    </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D80" s="19"/>
-    </row>
-    <row r="81" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-    </row>
-    <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-    </row>
-    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-    </row>
-    <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-    </row>
-    <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="19"/>
-    </row>
-    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" s="19"/>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D98" s="19"/>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D99" s="19"/>
-    </row>
-    <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D101" s="19"/>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="19"/>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D104" s="19"/>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D105" s="19"/>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D106" s="19"/>
-    </row>
-    <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="D111" s="19"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
-        <v>87</v>
+    <row r="134" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D146" s="19"/>
+    </row>
+    <row r="147" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" s="19"/>
+    </row>
+    <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+    </row>
+    <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" s="11" t="s">
+      <c r="B160" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
+      <c r="B164" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B193" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D196" s="19"/>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D154" s="19"/>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D155" s="19"/>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+      <c r="B197" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D156" s="19"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+      <c r="C197" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D197" s="19"/>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D198" s="19"/>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B199" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="C199" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D199" s="19"/>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D201" s="19"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B203" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="19"/>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B158" s="19" t="s">
+      <c r="C203" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="D203" s="19"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B204" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="19"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B159" s="19" t="s">
+      <c r="C204" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="D204" s="19"/>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B205" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D159" s="19"/>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B160" s="19" t="s">
+      <c r="C205" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D160" s="19"/>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="D161" s="19"/>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D162" s="19"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D163" s="19"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="D205" s="19"/>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="8"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="500">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Робота в ручному режимі, заборона в автоматі</t>
   </si>
   <si>
-    <t>%M2.4</t>
-  </si>
-  <si>
     <t>РЕАЛІЗУВАТИ</t>
   </si>
   <si>
@@ -314,21 +311,12 @@
     <t>Час післяпродувки</t>
   </si>
   <si>
-    <t>Are you sure AUTO</t>
-  </si>
-  <si>
-    <t>АВТОМАТ. Виклик меню пуск/стоп процеса</t>
-  </si>
-  <si>
     <t>Автомат та ручний/ Галочка, команда блокування регулювання лазерних параметрів</t>
   </si>
   <si>
     <t xml:space="preserve">Ручний. Вікно блокування клавіші пуск/стоп лазер </t>
   </si>
   <si>
-    <t xml:space="preserve">Автомат. Вікно блокування клавіші Пуск/Стоп </t>
-  </si>
-  <si>
     <t>АВТОМАТ. Команда на пуск процесу</t>
   </si>
   <si>
@@ -1512,6 +1500,27 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>%4X35.09</t>
+  </si>
+  <si>
+    <t>%MW34.9</t>
+  </si>
+  <si>
+    <t>%4X35.10</t>
+  </si>
+  <si>
+    <t>%MW34.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомат. Вікно блокування кнопки Пуск/Стоп </t>
+  </si>
+  <si>
+    <t>АВТОМАТ. Вікно Are you sure</t>
+  </si>
+  <si>
+    <t>АВТОМАТ. Кнопка виклику Are you sure/стоп процесу</t>
   </si>
 </sst>
 </file>
@@ -2003,11 +2012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -2049,13 +2058,13 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" s="22"/>
       <c r="G3" s="5"/>
@@ -2064,13 +2073,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D4" s="22"/>
       <c r="G4" s="5"/>
@@ -2079,13 +2088,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D5" s="22"/>
       <c r="G5" s="5"/>
@@ -2094,13 +2103,13 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D6" s="22"/>
       <c r="G6" s="5"/>
@@ -2109,13 +2118,13 @@
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D7" s="22"/>
       <c r="G7" s="5"/>
@@ -2124,13 +2133,13 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="22"/>
       <c r="G8" s="5"/>
@@ -2139,13 +2148,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D9" s="22"/>
       <c r="G9" s="5"/>
@@ -2154,13 +2163,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D10" s="22"/>
       <c r="G10" s="5"/>
@@ -2169,13 +2178,13 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D11" s="22"/>
       <c r="G11" s="5"/>
@@ -2184,13 +2193,13 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D12" s="22"/>
       <c r="G12" s="5"/>
@@ -2199,11 +2208,11 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D13" s="22"/>
       <c r="G13" s="5"/>
@@ -2212,13 +2221,13 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D14" s="22"/>
       <c r="G14" s="5"/>
@@ -2227,13 +2236,13 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D15" s="22"/>
       <c r="G15" s="5"/>
@@ -2242,13 +2251,13 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D16" s="22"/>
       <c r="G16" s="5"/>
@@ -2257,13 +2266,13 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D17" s="22"/>
       <c r="G17" s="5"/>
@@ -2272,13 +2281,13 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D18" s="22"/>
       <c r="G18" s="5"/>
@@ -2287,13 +2296,13 @@
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D19" s="22"/>
       <c r="G19" s="5"/>
@@ -2302,13 +2311,13 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D20" s="22"/>
       <c r="G20" s="5"/>
@@ -2317,13 +2326,13 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D21" s="22"/>
       <c r="G21" s="5"/>
@@ -2332,13 +2341,13 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D22" s="22"/>
       <c r="G22" s="5"/>
@@ -2347,13 +2356,13 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D23" s="22"/>
       <c r="G23" s="5"/>
@@ -2362,13 +2371,13 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D24" s="22"/>
       <c r="G24" s="5"/>
@@ -2377,13 +2386,13 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D25" s="22"/>
       <c r="G25" s="5"/>
@@ -2392,13 +2401,13 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D26" s="22"/>
       <c r="G26" s="5"/>
@@ -2407,13 +2416,13 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D27" s="22"/>
       <c r="G27" s="5"/>
@@ -2422,13 +2431,13 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D28" s="22"/>
       <c r="G28" s="5"/>
@@ -2437,13 +2446,13 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D29" s="22"/>
       <c r="G29" s="5"/>
@@ -2452,13 +2461,13 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D30" s="22"/>
       <c r="G30" s="5"/>
@@ -2467,13 +2476,13 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D31" s="22"/>
       <c r="G31" s="5"/>
@@ -2482,13 +2491,13 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>423</v>
-      </c>
       <c r="C32" s="21" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D32" s="22"/>
       <c r="G32" s="5"/>
@@ -2497,13 +2506,13 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D33" s="22"/>
       <c r="G33" s="5"/>
@@ -2512,13 +2521,13 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>97</v>
+        <v>498</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D34" s="22"/>
       <c r="G34" s="5"/>
@@ -2527,13 +2536,13 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>101</v>
+        <v>497</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D35" s="22"/>
       <c r="G35" s="5"/>
@@ -2542,13 +2551,13 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D36" s="22"/>
       <c r="G36" s="5"/>
@@ -2557,13 +2566,13 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>98</v>
+        <v>499</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D37" s="22"/>
       <c r="G37" s="5"/>
@@ -2571,14 +2580,12 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>433</v>
-      </c>
+      <c r="A38" s="19"/>
       <c r="B38" s="21" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="D38" s="22"/>
       <c r="G38" s="5"/>
@@ -2587,13 +2594,13 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>434</v>
+        <v>98</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="D39" s="22"/>
       <c r="G39" s="5"/>
@@ -2602,13 +2609,13 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D40" s="22"/>
       <c r="G40" s="5"/>
@@ -2617,13 +2624,13 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D41" s="22"/>
       <c r="G41" s="5"/>
@@ -2632,13 +2639,13 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D42" s="22"/>
       <c r="G42" s="5"/>
@@ -2647,13 +2654,13 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="5"/>
@@ -2662,13 +2669,13 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D44" s="22"/>
       <c r="G44" s="5"/>
@@ -2677,13 +2684,13 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D45" s="22"/>
       <c r="G45" s="5"/>
@@ -2692,13 +2699,13 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D46" s="22"/>
       <c r="G46" s="5"/>
@@ -2707,13 +2714,13 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D47" s="22"/>
       <c r="G47" s="5"/>
@@ -2722,13 +2729,13 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D48" s="22"/>
       <c r="G48" s="5"/>
@@ -2737,13 +2744,13 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D49" s="22"/>
       <c r="G49" s="5"/>
@@ -2752,13 +2759,13 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D50" s="22"/>
       <c r="G50" s="5"/>
@@ -2767,13 +2774,13 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="5"/>
@@ -2782,13 +2789,13 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D52" s="22"/>
       <c r="G52" s="5"/>
@@ -2797,13 +2804,13 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D53" s="22"/>
       <c r="G53" s="5"/>
@@ -2812,13 +2819,13 @@
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D54" s="22"/>
       <c r="G54" s="5"/>
@@ -2827,13 +2834,13 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D55" s="22"/>
       <c r="G55" s="5"/>
@@ -2842,13 +2849,13 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D56" s="22"/>
       <c r="G56" s="5"/>
@@ -2857,13 +2864,13 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D57" s="22"/>
       <c r="G57" s="5"/>
@@ -2872,13 +2879,13 @@
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D58" s="22"/>
       <c r="G58" s="5"/>
@@ -2887,13 +2894,13 @@
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D59" s="22"/>
       <c r="G59" s="5"/>
@@ -2901,46 +2908,50 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="A60" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>478</v>
+      </c>
       <c r="D60" s="22"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D61" s="22"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
@@ -2950,10 +2961,10 @@
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
@@ -2962,45 +2973,41 @@
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>76</v>
+      <c r="A65" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C65" s="17"/>
-      <c r="D65" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D65" s="16"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>77</v>
+      <c r="A66" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66" s="17"/>
-      <c r="D66" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D66" s="16"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3008,51 +3015,55 @@
     </row>
     <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>85</v>
+      <c r="A69" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C69" s="17"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>87</v>
+      <c r="A70" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C70" s="17"/>
-      <c r="D70" s="16"/>
+      <c r="D70" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="16"/>
@@ -3062,10 +3073,10 @@
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
@@ -3075,10 +3086,10 @@
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="16"/>
@@ -3088,10 +3099,10 @@
     </row>
     <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
@@ -3101,10 +3112,10 @@
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="16"/>
@@ -3114,10 +3125,10 @@
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
@@ -3127,10 +3138,10 @@
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
@@ -3140,10 +3151,10 @@
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
@@ -3153,10 +3164,10 @@
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
@@ -3166,10 +3177,10 @@
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
@@ -3179,10 +3190,10 @@
     </row>
     <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
@@ -3192,10 +3203,10 @@
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
@@ -3205,10 +3216,10 @@
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
@@ -3218,10 +3229,10 @@
     </row>
     <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
@@ -3231,10 +3242,10 @@
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
@@ -3244,10 +3255,10 @@
     </row>
     <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
@@ -3257,10 +3268,10 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
@@ -3270,10 +3281,10 @@
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
@@ -3283,10 +3294,10 @@
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
@@ -3296,10 +3307,10 @@
     </row>
     <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
@@ -3309,10 +3320,10 @@
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
@@ -3322,10 +3333,10 @@
     </row>
     <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
@@ -3335,10 +3346,10 @@
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
@@ -3348,10 +3359,10 @@
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
@@ -3361,10 +3372,10 @@
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
@@ -3374,10 +3385,10 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
@@ -3387,10 +3398,10 @@
     </row>
     <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
@@ -3400,10 +3411,10 @@
     </row>
     <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
@@ -3413,10 +3424,10 @@
     </row>
     <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
@@ -3426,10 +3437,10 @@
     </row>
     <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
@@ -3439,10 +3450,10 @@
     </row>
     <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="16"/>
@@ -3451,59 +3462,55 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D102" s="22"/>
+      <c r="A102" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="17"/>
+      <c r="D102" s="16"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D103" s="19"/>
+      <c r="A103" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="17"/>
+      <c r="D103" s="16"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="D104" s="19"/>
+        <v>311</v>
+      </c>
+      <c r="D104" s="22"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D105" s="19"/>
       <c r="G105" s="5"/>
@@ -3512,13 +3519,13 @@
     </row>
     <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D106" s="19"/>
       <c r="G106" s="5"/>
@@ -3527,276 +3534,294 @@
     </row>
     <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D107" s="19"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D108" s="19"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D109" s="19"/>
-      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D110" s="19"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D111" s="19"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>306</v>
+        <v>335</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="D113" s="19"/>
-    </row>
-    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B116" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D114" s="19"/>
-    </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B117" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="19"/>
-    </row>
-    <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B118" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D116" s="19"/>
-    </row>
-    <row r="117" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B119" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D117" s="19"/>
-    </row>
-    <row r="118" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D118" s="19"/>
-    </row>
-    <row r="119" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D119" s="19"/>
-    </row>
-    <row r="120" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="B120" s="19" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="C120" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D120" s="19"/>
-    </row>
-    <row r="121" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D121" s="19"/>
-    </row>
-    <row r="122" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>286</v>
-      </c>
       <c r="C123" s="19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D123" s="19"/>
     </row>
-    <row r="124" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B124" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C128" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D124" s="19"/>
-    </row>
-    <row r="125" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B125" s="19" t="s">
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C129" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D125" s="19"/>
-    </row>
-    <row r="126" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="19" t="s">
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C130" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="D126" s="19"/>
-    </row>
-    <row r="127" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="19"/>
-    </row>
-    <row r="128" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D128" s="19"/>
-    </row>
-    <row r="129" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-    </row>
-    <row r="130" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
       <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,847 +3836,849 @@
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
     </row>
-    <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+    <row r="133" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-    </row>
-    <row r="134" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-    </row>
-    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
     </row>
     <row r="138" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
     </row>
     <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
     </row>
     <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D142" s="19"/>
+      <c r="A142" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D143" s="19"/>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D144" s="19"/>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D145" s="19"/>
     </row>
     <row r="146" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D146" s="19"/>
     </row>
     <row r="147" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D147" s="19"/>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+      <c r="A155" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" s="19"/>
     </row>
     <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
-        <v>159</v>
+      <c r="A179" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
-        <v>82</v>
+      <c r="A180" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
-        <v>150</v>
+      <c r="A190" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
-        <v>161</v>
+      <c r="A195" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D196" s="19"/>
+      <c r="A196" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D197" s="19"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D198" s="19"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D201" s="19"/>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D203" s="19"/>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
+      <c r="A206" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="D206" s="19"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+      <c r="A243" s="8"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="8"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="3"/>
+      <c r="A250" s="8"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -311,9 +311,6 @@
     <t>Час післяпродувки</t>
   </si>
   <si>
-    <t>Автомат та ручний/ Галочка, команда блокування регулювання лазерних параметрів</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ручний. Вікно блокування клавіші пуск/стоп лазер </t>
   </si>
   <si>
@@ -1521,6 +1518,9 @@
   </si>
   <si>
     <t>АВТОМАТ. Кнопка виклику Are you sure/стоп процесу</t>
+  </si>
+  <si>
+    <t>Ручний. Галочка, команда блокування регулювання лазерних параметрів</t>
   </si>
 </sst>
 </file>
@@ -2015,8 +2015,8 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="D3" s="22"/>
       <c r="G3" s="5"/>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="D4" s="22"/>
       <c r="G4" s="5"/>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="D5" s="22"/>
       <c r="G5" s="5"/>
@@ -2106,10 +2106,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="D6" s="22"/>
       <c r="G6" s="5"/>
@@ -2121,10 +2121,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="22"/>
       <c r="G7" s="5"/>
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>273</v>
       </c>
       <c r="D8" s="22"/>
       <c r="G8" s="5"/>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="22"/>
       <c r="G9" s="5"/>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="22"/>
       <c r="G10" s="5"/>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>295</v>
       </c>
       <c r="D11" s="22"/>
       <c r="G11" s="5"/>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>296</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="D12" s="22"/>
       <c r="G12" s="5"/>
@@ -2208,11 +2208,11 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13" s="22"/>
       <c r="G13" s="5"/>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D14" s="22"/>
       <c r="G14" s="5"/>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="22"/>
       <c r="G15" s="5"/>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D16" s="22"/>
       <c r="G16" s="5"/>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D17" s="22"/>
       <c r="G17" s="5"/>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="22"/>
       <c r="G18" s="5"/>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="22"/>
       <c r="G19" s="5"/>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D20" s="22"/>
       <c r="G20" s="5"/>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" s="22"/>
       <c r="G21" s="5"/>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D22" s="22"/>
       <c r="G22" s="5"/>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D23" s="22"/>
       <c r="G23" s="5"/>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D24" s="22"/>
       <c r="G24" s="5"/>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D25" s="22"/>
       <c r="G25" s="5"/>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D26" s="22"/>
       <c r="G26" s="5"/>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D27" s="22"/>
       <c r="G27" s="5"/>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D28" s="22"/>
       <c r="G28" s="5"/>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D29" s="22"/>
       <c r="G29" s="5"/>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D30" s="22"/>
       <c r="G30" s="5"/>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D31" s="22"/>
       <c r="G31" s="5"/>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D32" s="22"/>
       <c r="G32" s="5"/>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D33" s="22"/>
       <c r="G33" s="5"/>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D34" s="22"/>
       <c r="G34" s="5"/>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D35" s="22"/>
       <c r="G35" s="5"/>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="D36" s="22"/>
       <c r="G36" s="5"/>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>425</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>426</v>
       </c>
       <c r="D37" s="22"/>
       <c r="G37" s="5"/>
@@ -2582,10 +2582,10 @@
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="D38" s="22"/>
       <c r="G38" s="5"/>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>496</v>
       </c>
       <c r="D39" s="22"/>
       <c r="G39" s="5"/>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" s="22"/>
       <c r="G40" s="5"/>
@@ -2624,13 +2624,13 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D41" s="22"/>
       <c r="G41" s="5"/>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D42" s="22"/>
       <c r="G42" s="5"/>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="5"/>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D44" s="22"/>
       <c r="G44" s="5"/>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D45" s="22"/>
       <c r="G45" s="5"/>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D46" s="22"/>
       <c r="G46" s="5"/>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D47" s="22"/>
       <c r="G47" s="5"/>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D48" s="22"/>
       <c r="G48" s="5"/>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D49" s="22"/>
       <c r="G49" s="5"/>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="D50" s="22"/>
       <c r="G50" s="5"/>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>459</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>460</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="5"/>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>461</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>462</v>
       </c>
       <c r="D52" s="22"/>
       <c r="G52" s="5"/>
@@ -2804,13 +2804,13 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="D53" s="22"/>
       <c r="G53" s="5"/>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="D54" s="22"/>
       <c r="G54" s="5"/>
@@ -2834,13 +2834,13 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>468</v>
       </c>
       <c r="D55" s="22"/>
       <c r="G55" s="5"/>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="D56" s="22"/>
       <c r="G56" s="5"/>
@@ -2864,13 +2864,13 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>472</v>
       </c>
       <c r="D57" s="22"/>
       <c r="G57" s="5"/>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>474</v>
       </c>
       <c r="D58" s="22"/>
       <c r="G58" s="5"/>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>476</v>
       </c>
       <c r="D59" s="22"/>
       <c r="G59" s="5"/>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B60" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>477</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>478</v>
       </c>
       <c r="D60" s="22"/>
       <c r="G60" s="5"/>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>480</v>
       </c>
       <c r="D61" s="22"/>
       <c r="G61" s="5"/>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="16"/>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="16"/>
@@ -3492,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="B104" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>311</v>
       </c>
       <c r="D104" s="22"/>
       <c r="G104" s="5"/>
@@ -3507,10 +3507,10 @@
         <v>22</v>
       </c>
       <c r="B105" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>312</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>313</v>
       </c>
       <c r="D105" s="19"/>
       <c r="G105" s="5"/>
@@ -3522,10 +3522,10 @@
         <v>23</v>
       </c>
       <c r="B106" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="D106" s="19"/>
       <c r="G106" s="5"/>
@@ -3537,10 +3537,10 @@
         <v>24</v>
       </c>
       <c r="B107" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="D107" s="19"/>
       <c r="G107" s="5"/>
@@ -3549,13 +3549,13 @@
     </row>
     <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>318</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>319</v>
       </c>
       <c r="D108" s="19"/>
       <c r="G108" s="5"/>
@@ -3564,64 +3564,64 @@
     </row>
     <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B109" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B110" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>323</v>
       </c>
       <c r="D110" s="19"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B111" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="D111" s="19"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B112" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>326</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>327</v>
       </c>
       <c r="D112" s="19"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>328</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>329</v>
       </c>
       <c r="D113" s="19"/>
       <c r="G113" s="1"/>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B115" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="D115" s="19"/>
     </row>
@@ -3649,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D116" s="19"/>
     </row>
@@ -3661,10 +3661,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D117" s="19"/>
     </row>
@@ -3673,10 +3673,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D118" s="19"/>
     </row>
@@ -3685,10 +3685,10 @@
         <v>5</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D119" s="19"/>
     </row>
@@ -3697,46 +3697,46 @@
         <v>6</v>
       </c>
       <c r="B120" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="B121" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="D121" s="19"/>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="D122" s="19"/>
     </row>
     <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="D123" s="19"/>
     </row>
@@ -3745,10 +3745,10 @@
         <v>90</v>
       </c>
       <c r="B124" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="D124" s="19"/>
     </row>
@@ -3757,10 +3757,10 @@
         <v>88</v>
       </c>
       <c r="B125" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="D125" s="19"/>
     </row>
@@ -3769,34 +3769,34 @@
         <v>89</v>
       </c>
       <c r="B126" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>285</v>
       </c>
       <c r="D126" s="19"/>
     </row>
     <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="D128" s="19"/>
     </row>
@@ -3805,10 +3805,10 @@
         <v>91</v>
       </c>
       <c r="B129" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="D129" s="19"/>
     </row>
@@ -3817,10 +3817,10 @@
         <v>92</v>
       </c>
       <c r="B130" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="D130" s="19"/>
     </row>
@@ -3933,10 +3933,10 @@
         <v>32</v>
       </c>
       <c r="B143" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="D143" s="19"/>
     </row>
@@ -3945,10 +3945,10 @@
         <v>33</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" s="19"/>
     </row>
@@ -3957,10 +3957,10 @@
         <v>34</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D145" s="19"/>
     </row>
@@ -3969,10 +3969,10 @@
         <v>35</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" s="19"/>
     </row>
@@ -3981,106 +3981,106 @@
         <v>36</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D147" s="19"/>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B149" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B150" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B152" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B153" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B154" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="C155" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="D155" s="19"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>56</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4099,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -4109,7 +4109,7 @@
         <v>41</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4119,7 +4119,7 @@
         <v>42</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4129,7 +4129,7 @@
         <v>57</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4139,7 +4139,7 @@
         <v>58</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4149,7 +4149,7 @@
         <v>43</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4159,7 +4159,7 @@
         <v>44</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4169,7 +4169,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4179,7 +4179,7 @@
         <v>59</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4189,7 +4189,7 @@
         <v>46</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4199,7 +4199,7 @@
         <v>47</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4209,7 +4209,7 @@
         <v>48</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4219,7 +4219,7 @@
         <v>60</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4229,7 +4229,7 @@
         <v>61</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4239,7 +4239,7 @@
         <v>49</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4249,7 +4249,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4259,27 +4259,27 @@
         <v>51</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4306,27 +4306,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>52</v>
@@ -4366,251 +4366,251 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D197" s="19"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D198" s="19"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B200" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B201" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="C201" s="19" t="s">
-        <v>346</v>
       </c>
       <c r="D201" s="19"/>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>348</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B203" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="D203" s="19"/>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B204" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B205" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C205" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B206" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C206" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="C206" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="D206" s="19"/>
     </row>

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -311,6 +311,9 @@
     <t>Час післяпродувки</t>
   </si>
   <si>
+    <t>Автомат та ручний/ Галочка, команда блокування регулювання лазерних параметрів</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ручний. Вікно блокування клавіші пуск/стоп лазер </t>
   </si>
   <si>
@@ -1518,9 +1521,6 @@
   </si>
   <si>
     <t>АВТОМАТ. Кнопка виклику Are you sure/стоп процесу</t>
-  </si>
-  <si>
-    <t>Ручний. Галочка, команда блокування регулювання лазерних параметрів</t>
   </si>
 </sst>
 </file>
@@ -2015,8 +2015,8 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="22"/>
       <c r="G3" s="5"/>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" s="22"/>
       <c r="G4" s="5"/>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>307</v>
       </c>
       <c r="D5" s="22"/>
       <c r="G5" s="5"/>
@@ -2106,10 +2106,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D6" s="22"/>
       <c r="G6" s="5"/>
@@ -2121,10 +2121,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D7" s="22"/>
       <c r="G7" s="5"/>
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="22"/>
       <c r="G8" s="5"/>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>264</v>
       </c>
       <c r="D9" s="22"/>
       <c r="G9" s="5"/>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D10" s="22"/>
       <c r="G10" s="5"/>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D11" s="22"/>
       <c r="G11" s="5"/>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D12" s="22"/>
       <c r="G12" s="5"/>
@@ -2208,11 +2208,11 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D13" s="22"/>
       <c r="G13" s="5"/>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D14" s="22"/>
       <c r="G14" s="5"/>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D15" s="22"/>
       <c r="G15" s="5"/>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D16" s="22"/>
       <c r="G16" s="5"/>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D17" s="22"/>
       <c r="G17" s="5"/>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D18" s="22"/>
       <c r="G18" s="5"/>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D19" s="22"/>
       <c r="G19" s="5"/>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D20" s="22"/>
       <c r="G20" s="5"/>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D21" s="22"/>
       <c r="G21" s="5"/>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D22" s="22"/>
       <c r="G22" s="5"/>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D23" s="22"/>
       <c r="G23" s="5"/>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D24" s="22"/>
       <c r="G24" s="5"/>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D25" s="22"/>
       <c r="G25" s="5"/>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D26" s="22"/>
       <c r="G26" s="5"/>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D27" s="22"/>
       <c r="G27" s="5"/>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D28" s="22"/>
       <c r="G28" s="5"/>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D29" s="22"/>
       <c r="G29" s="5"/>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D30" s="22"/>
       <c r="G30" s="5"/>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D31" s="22"/>
       <c r="G31" s="5"/>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D32" s="22"/>
       <c r="G32" s="5"/>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D33" s="22"/>
       <c r="G33" s="5"/>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D34" s="22"/>
       <c r="G34" s="5"/>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D35" s="22"/>
       <c r="G35" s="5"/>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D36" s="22"/>
       <c r="G36" s="5"/>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D37" s="22"/>
       <c r="G37" s="5"/>
@@ -2582,10 +2582,10 @@
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D38" s="22"/>
       <c r="G38" s="5"/>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D39" s="22"/>
       <c r="G39" s="5"/>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D40" s="22"/>
       <c r="G40" s="5"/>
@@ -2624,13 +2624,13 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D41" s="22"/>
       <c r="G41" s="5"/>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D42" s="22"/>
       <c r="G42" s="5"/>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="5"/>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D44" s="22"/>
       <c r="G44" s="5"/>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D45" s="22"/>
       <c r="G45" s="5"/>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D46" s="22"/>
       <c r="G46" s="5"/>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D47" s="22"/>
       <c r="G47" s="5"/>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D48" s="22"/>
       <c r="G48" s="5"/>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D49" s="22"/>
       <c r="G49" s="5"/>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D50" s="22"/>
       <c r="G50" s="5"/>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="5"/>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D52" s="22"/>
       <c r="G52" s="5"/>
@@ -2804,13 +2804,13 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D53" s="22"/>
       <c r="G53" s="5"/>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D54" s="22"/>
       <c r="G54" s="5"/>
@@ -2834,13 +2834,13 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D55" s="22"/>
       <c r="G55" s="5"/>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D56" s="22"/>
       <c r="G56" s="5"/>
@@ -2864,13 +2864,13 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D57" s="22"/>
       <c r="G57" s="5"/>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D58" s="22"/>
       <c r="G58" s="5"/>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D59" s="22"/>
       <c r="G59" s="5"/>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D60" s="22"/>
       <c r="G60" s="5"/>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D61" s="22"/>
       <c r="G61" s="5"/>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="16"/>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="16"/>
@@ -3492,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D104" s="22"/>
       <c r="G104" s="5"/>
@@ -3507,10 +3507,10 @@
         <v>22</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D105" s="19"/>
       <c r="G105" s="5"/>
@@ -3522,10 +3522,10 @@
         <v>23</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D106" s="19"/>
       <c r="G106" s="5"/>
@@ -3537,10 +3537,10 @@
         <v>24</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D107" s="19"/>
       <c r="G107" s="5"/>
@@ -3549,13 +3549,13 @@
     </row>
     <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D108" s="19"/>
       <c r="G108" s="5"/>
@@ -3564,64 +3564,64 @@
     </row>
     <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D110" s="19"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D111" s="19"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D112" s="19"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D113" s="19"/>
       <c r="G113" s="1"/>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>301</v>
       </c>
       <c r="D115" s="19"/>
     </row>
@@ -3649,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D116" s="19"/>
     </row>
@@ -3661,10 +3661,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D117" s="19"/>
     </row>
@@ -3673,10 +3673,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D118" s="19"/>
     </row>
@@ -3685,10 +3685,10 @@
         <v>5</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D119" s="19"/>
     </row>
@@ -3697,46 +3697,46 @@
         <v>6</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>499</v>
+        <v>96</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D121" s="19"/>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D122" s="19"/>
     </row>
     <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D123" s="19"/>
     </row>
@@ -3745,10 +3745,10 @@
         <v>90</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" s="19"/>
     </row>
@@ -3757,10 +3757,10 @@
         <v>88</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D125" s="19"/>
     </row>
@@ -3769,34 +3769,34 @@
         <v>89</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D126" s="19"/>
     </row>
     <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D128" s="19"/>
     </row>
@@ -3805,10 +3805,10 @@
         <v>91</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D129" s="19"/>
     </row>
@@ -3817,10 +3817,10 @@
         <v>92</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D130" s="19"/>
     </row>
@@ -3933,10 +3933,10 @@
         <v>32</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D143" s="19"/>
     </row>
@@ -3945,10 +3945,10 @@
         <v>33</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D144" s="19"/>
     </row>
@@ -3957,10 +3957,10 @@
         <v>34</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D145" s="19"/>
     </row>
@@ -3969,10 +3969,10 @@
         <v>35</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D146" s="19"/>
     </row>
@@ -3981,106 +3981,106 @@
         <v>36</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D147" s="19"/>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D155" s="19"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>56</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4099,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -4109,7 +4109,7 @@
         <v>41</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4119,7 +4119,7 @@
         <v>42</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4129,7 +4129,7 @@
         <v>57</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4139,7 +4139,7 @@
         <v>58</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4149,7 +4149,7 @@
         <v>43</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4159,7 +4159,7 @@
         <v>44</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4169,7 +4169,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4179,7 +4179,7 @@
         <v>59</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4189,7 +4189,7 @@
         <v>46</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4199,7 +4199,7 @@
         <v>47</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4209,7 +4209,7 @@
         <v>48</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4219,7 +4219,7 @@
         <v>60</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4229,7 +4229,7 @@
         <v>61</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4239,7 +4239,7 @@
         <v>49</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4249,7 +4249,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4259,27 +4259,27 @@
         <v>51</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4306,27 +4306,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>52</v>
@@ -4366,251 +4366,251 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D197" s="19"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D198" s="19"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D201" s="19"/>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D203" s="19"/>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D206" s="19"/>
     </row>

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="502">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -1521,6 +1521,12 @@
   </si>
   <si>
     <t>Ручний. Галочка, команда блокування регулювання лазерних параметрів</t>
+  </si>
+  <si>
+    <t>%4X7</t>
+  </si>
+  <si>
+    <t>%MW6</t>
   </si>
 </sst>
 </file>
@@ -2012,11 +2018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,13 +2079,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>244</v>
+        <v>501</v>
       </c>
       <c r="D4" s="22"/>
       <c r="G4" s="5"/>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="D5" s="22"/>
       <c r="G5" s="5"/>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="D6" s="22"/>
       <c r="G6" s="5"/>
@@ -2118,13 +2124,13 @@
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D7" s="22"/>
       <c r="G7" s="5"/>
@@ -2133,13 +2139,13 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="22"/>
       <c r="G8" s="5"/>
@@ -2148,13 +2154,13 @@
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D9" s="22"/>
       <c r="G9" s="5"/>
@@ -2163,13 +2169,13 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D10" s="22"/>
       <c r="G10" s="5"/>
@@ -2178,13 +2184,13 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D11" s="22"/>
       <c r="G11" s="5"/>
@@ -2193,13 +2199,13 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D12" s="22"/>
       <c r="G12" s="5"/>
@@ -2208,11 +2214,13 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="21"/>
+        <v>298</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>295</v>
+      </c>
       <c r="C13" s="21" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="D13" s="22"/>
       <c r="G13" s="5"/>
@@ -2221,13 +2229,11 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>377</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="21" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D14" s="22"/>
       <c r="G14" s="5"/>
@@ -2236,13 +2242,13 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D15" s="22"/>
       <c r="G15" s="5"/>
@@ -2251,13 +2257,13 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D16" s="22"/>
       <c r="G16" s="5"/>
@@ -2266,13 +2272,13 @@
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" s="22"/>
       <c r="G17" s="5"/>
@@ -2281,13 +2287,13 @@
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" s="22"/>
       <c r="G18" s="5"/>
@@ -2296,13 +2302,13 @@
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D19" s="22"/>
       <c r="G19" s="5"/>
@@ -2311,13 +2317,13 @@
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D20" s="22"/>
       <c r="G20" s="5"/>
@@ -2326,13 +2332,13 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D21" s="22"/>
       <c r="G21" s="5"/>
@@ -2341,13 +2347,13 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" s="22"/>
       <c r="G22" s="5"/>
@@ -2356,13 +2362,13 @@
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="22"/>
       <c r="G23" s="5"/>
@@ -2371,13 +2377,13 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="22"/>
       <c r="G24" s="5"/>
@@ -2386,13 +2392,13 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D25" s="22"/>
       <c r="G25" s="5"/>
@@ -2401,13 +2407,13 @@
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D26" s="22"/>
       <c r="G26" s="5"/>
@@ -2416,13 +2422,13 @@
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D27" s="22"/>
       <c r="G27" s="5"/>
@@ -2431,13 +2437,13 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D28" s="22"/>
       <c r="G28" s="5"/>
@@ -2446,13 +2452,13 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D29" s="22"/>
       <c r="G29" s="5"/>
@@ -2461,13 +2467,13 @@
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="22"/>
       <c r="G30" s="5"/>
@@ -2476,13 +2482,13 @@
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="22"/>
       <c r="G31" s="5"/>
@@ -2491,13 +2497,13 @@
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" s="22"/>
       <c r="G32" s="5"/>
@@ -2506,13 +2512,13 @@
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="22"/>
       <c r="G33" s="5"/>
@@ -2521,13 +2527,13 @@
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>497</v>
+        <v>413</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D34" s="22"/>
       <c r="G34" s="5"/>
@@ -2536,13 +2542,13 @@
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D35" s="22"/>
       <c r="G35" s="5"/>
@@ -2551,13 +2557,13 @@
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>172</v>
+        <v>496</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D36" s="22"/>
       <c r="G36" s="5"/>
@@ -2566,13 +2572,13 @@
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D37" s="22"/>
       <c r="G37" s="5"/>
@@ -2580,12 +2586,14 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>498</v>
+      </c>
       <c r="B38" s="21" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="D38" s="22"/>
       <c r="G38" s="5"/>
@@ -2593,14 +2601,12 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A39" s="19"/>
       <c r="B39" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D39" s="22"/>
       <c r="G39" s="5"/>
@@ -2609,13 +2615,13 @@
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D40" s="22"/>
       <c r="G40" s="5"/>
@@ -2624,13 +2630,13 @@
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D41" s="22"/>
       <c r="G41" s="5"/>
@@ -2639,13 +2645,13 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D42" s="22"/>
       <c r="G42" s="5"/>
@@ -2654,13 +2660,13 @@
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="5"/>
@@ -2669,13 +2675,13 @@
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D44" s="22"/>
       <c r="G44" s="5"/>
@@ -2684,13 +2690,13 @@
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D45" s="22"/>
       <c r="G45" s="5"/>
@@ -2699,13 +2705,13 @@
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" s="22"/>
       <c r="G46" s="5"/>
@@ -2714,13 +2720,13 @@
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D47" s="22"/>
       <c r="G47" s="5"/>
@@ -2729,13 +2735,13 @@
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D48" s="22"/>
       <c r="G48" s="5"/>
@@ -2744,13 +2750,13 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D49" s="22"/>
       <c r="G49" s="5"/>
@@ -2759,13 +2765,13 @@
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D50" s="22"/>
       <c r="G50" s="5"/>
@@ -2774,13 +2780,13 @@
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D51" s="22"/>
       <c r="G51" s="5"/>
@@ -2789,13 +2795,13 @@
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D52" s="22"/>
       <c r="G52" s="5"/>
@@ -2804,13 +2810,13 @@
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D53" s="22"/>
       <c r="G53" s="5"/>
@@ -2819,13 +2825,13 @@
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D54" s="22"/>
       <c r="G54" s="5"/>
@@ -2834,13 +2840,13 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D55" s="22"/>
       <c r="G55" s="5"/>
@@ -2849,13 +2855,13 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D56" s="22"/>
       <c r="G56" s="5"/>
@@ -2864,13 +2870,13 @@
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D57" s="22"/>
       <c r="G57" s="5"/>
@@ -2879,13 +2885,13 @@
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D58" s="22"/>
       <c r="G58" s="5"/>
@@ -2894,13 +2900,13 @@
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D59" s="22"/>
       <c r="G59" s="5"/>
@@ -2909,13 +2915,13 @@
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D60" s="22"/>
       <c r="G60" s="5"/>
@@ -2924,13 +2930,13 @@
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D61" s="22"/>
       <c r="G61" s="5"/>
@@ -2938,33 +2944,35 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>479</v>
+      </c>
       <c r="D62" s="22"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
@@ -2974,10 +2982,10 @@
     </row>
     <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="16"/>
@@ -2987,10 +2995,10 @@
     </row>
     <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
@@ -2999,26 +3007,24 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>75</v>
+      <c r="A67" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="17"/>
-      <c r="D67" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="D67" s="16"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="11" t="s">
@@ -3030,10 +3036,10 @@
     </row>
     <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="11" t="s">
@@ -3045,10 +3051,10 @@
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="11" t="s">
@@ -3059,24 +3065,26 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>84</v>
+      <c r="A71" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="17"/>
-      <c r="D71" s="16"/>
+      <c r="D71" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
@@ -3086,10 +3094,10 @@
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="16"/>
@@ -3099,10 +3107,10 @@
     </row>
     <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
@@ -3112,10 +3120,10 @@
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="16"/>
@@ -3125,10 +3133,10 @@
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
@@ -3138,10 +3146,10 @@
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
@@ -3151,10 +3159,10 @@
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
@@ -3164,10 +3172,10 @@
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
@@ -3177,10 +3185,10 @@
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
@@ -3190,10 +3198,10 @@
     </row>
     <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
@@ -3203,10 +3211,10 @@
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
@@ -3216,10 +3224,10 @@
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
@@ -3229,10 +3237,10 @@
     </row>
     <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
@@ -3242,10 +3250,10 @@
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
@@ -3255,10 +3263,10 @@
     </row>
     <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
@@ -3268,10 +3276,10 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
@@ -3281,10 +3289,10 @@
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
@@ -3294,10 +3302,10 @@
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
@@ -3307,10 +3315,10 @@
     </row>
     <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
@@ -3320,10 +3328,10 @@
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
@@ -3333,10 +3341,10 @@
     </row>
     <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
@@ -3346,10 +3354,10 @@
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
@@ -3359,10 +3367,10 @@
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
@@ -3372,10 +3380,10 @@
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
@@ -3385,10 +3393,10 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
@@ -3398,10 +3406,10 @@
     </row>
     <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
@@ -3411,10 +3419,10 @@
     </row>
     <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
@@ -3424,10 +3432,10 @@
     </row>
     <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
@@ -3437,10 +3445,10 @@
     </row>
     <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
@@ -3450,10 +3458,10 @@
     </row>
     <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="16"/>
@@ -3463,10 +3471,10 @@
     </row>
     <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
@@ -3476,10 +3484,10 @@
     </row>
     <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="16"/>
@@ -3488,44 +3496,42 @@
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D104" s="22"/>
+      <c r="A104" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="16"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D105" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="D105" s="22"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D106" s="19"/>
       <c r="G106" s="5"/>
@@ -3534,13 +3540,13 @@
     </row>
     <row r="107" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D107" s="19"/>
       <c r="G107" s="5"/>
@@ -3549,13 +3555,13 @@
     </row>
     <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>329</v>
+        <v>24</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D108" s="19"/>
       <c r="G108" s="5"/>
@@ -3564,270 +3570,279 @@
     </row>
     <row r="109" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D109" s="19"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D110" s="19"/>
-      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D111" s="19"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D112" s="19"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D113" s="19"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D115" s="19"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="D116" s="19"/>
     </row>
     <row r="117" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D117" s="19"/>
     </row>
     <row r="118" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B121" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C121" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D120" s="19"/>
-    </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B122" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D121" s="19"/>
-    </row>
-    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B123" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C123" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B124" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C124" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="D123" s="19"/>
-    </row>
-    <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B127" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C127" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="D126" s="19"/>
-    </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B129" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C129" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="D128" s="19"/>
-    </row>
-    <row r="129" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="D129" s="19"/>
     </row>
     <row r="130" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B131" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C131" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D130" s="19"/>
-    </row>
-    <row r="131" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
       <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3848,837 +3863,843 @@
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
     </row>
-    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+    <row r="135" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-    </row>
-    <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
     </row>
     <row r="138" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
     </row>
     <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
     </row>
     <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
     </row>
     <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="19"/>
+      <c r="A143" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D144" s="19"/>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D145" s="19"/>
     </row>
     <row r="146" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D146" s="19"/>
     </row>
     <row r="147" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" s="19"/>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B156" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C156" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D155" s="19"/>
-    </row>
-    <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="D156" s="19"/>
     </row>
     <row r="157" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="18" t="s">
-        <v>154</v>
+      <c r="A180" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
-        <v>81</v>
+      <c r="A181" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="18" t="s">
-        <v>145</v>
+      <c r="A191" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
-        <v>156</v>
+      <c r="A196" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D197" s="19"/>
+      <c r="A197" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D198" s="19"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D201" s="19"/>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D203" s="19"/>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D206" s="19"/>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B206" s="19" t="s">
+      <c r="B207" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C207" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D206" s="19"/>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
       <c r="D207" s="19"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+      <c r="A244" s="8"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
+      <c r="A245" s="7"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="3"/>
+      <c r="A251" s="8"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="381">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Ручний. Струм різання</t>
   </si>
   <si>
-    <t>%VW50</t>
-  </si>
-  <si>
     <t>Готовність ручний лазер</t>
   </si>
   <si>
@@ -1143,6 +1140,30 @@
   </si>
   <si>
     <t>Наявність аларма</t>
+  </si>
+  <si>
+    <t>%4X97</t>
+  </si>
+  <si>
+    <t>%MW96</t>
+  </si>
+  <si>
+    <t>%4X99</t>
+  </si>
+  <si>
+    <t>%MW98</t>
+  </si>
+  <si>
+    <t>Затримка аналізу алармів</t>
+  </si>
+  <si>
+    <t>Затримка вимкнення по аларму</t>
+  </si>
+  <si>
+    <t>%4X101</t>
+  </si>
+  <si>
+    <t>%MW100</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,10 +1326,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,10 +1335,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1632,11 +1649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,17 +1673,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -1677,1818 +1694,1850 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="19"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="19"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="19"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="B8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="B10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="21"/>
+      <c r="A11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="19"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="19"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="19"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="A15" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="A16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="A17" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="21"/>
+      <c r="A18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="A19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="21"/>
+      <c r="A20" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="A21" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="A22" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="19"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="A23" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="A24" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="19"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="A25" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="19"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="A26" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="A27" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="A28" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="A29" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="21"/>
+      <c r="A30" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="21"/>
+      <c r="A31" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="19"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="21"/>
+      <c r="A32" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="19"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="21"/>
+      <c r="A33" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="21"/>
+      <c r="A34" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="21"/>
+      <c r="A35" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="21"/>
+      <c r="A36" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="19"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="19"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="19"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="19"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D41" s="21"/>
+      <c r="A41" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="19"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="A42" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="19"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="21"/>
+      <c r="A43" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D44" s="21"/>
+      <c r="A44" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" s="21"/>
+      <c r="A45" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="19"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D46" s="21"/>
+      <c r="A46" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D47" s="21"/>
+      <c r="A47" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="19"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="21"/>
+      <c r="A48" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" s="21"/>
+      <c r="A49" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="19"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="21"/>
+      <c r="A50" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="19"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="19"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="19"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="A53" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="19"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="19"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="19"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="20" t="s">
+      <c r="A56" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="19"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="19"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="19"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="19"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="19"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="19"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="19"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="19"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="19"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="19"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="19"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" s="20" t="s">
+      <c r="A67" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="19"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="19"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B69" s="20" t="s">
+      <c r="A69" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="19"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="20" t="s">
+      <c r="A70" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="19"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D71" s="19"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="21"/>
+      <c r="A72" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D72" s="19"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="18"/>
+      <c r="A73" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D73" s="19"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="18"/>
+      <c r="A74" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="19"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="18"/>
+      <c r="A75" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="16"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="18"/>
+      <c r="A76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="16"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="20" t="s">
+      <c r="B80" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="18"/>
-    </row>
-    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="C80" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="20" t="s">
+      <c r="B81" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="C81" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="20" t="s">
+      <c r="B82" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="C82" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="20" t="s">
+      <c r="B83" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+      <c r="C83" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="16"/>
+    </row>
+    <row r="98" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="16"/>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+    </row>
+    <row r="102" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+    </row>
+    <row r="104" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="16"/>
+    </row>
+    <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="16"/>
+    </row>
+    <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="16"/>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="16"/>
+    </row>
+    <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="16"/>
+    </row>
+    <row r="111" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="16"/>
+    </row>
+    <row r="112" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="16"/>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" s="16"/>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="16"/>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="16"/>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="16"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="16"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="16"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D122" s="16"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123" s="16"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" s="16"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="16"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="18"/>
-    </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="18"/>
-    </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="18"/>
-    </row>
-    <row r="89" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="18"/>
-    </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="18"/>
-    </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="18"/>
-    </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="18"/>
-    </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="18"/>
-    </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="18"/>
-    </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="18"/>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="18"/>
-    </row>
-    <row r="98" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="18"/>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-    </row>
-    <row r="100" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" s="18"/>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="18"/>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="18"/>
-    </row>
-    <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="18"/>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="18"/>
-    </row>
-    <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="18"/>
-    </row>
-    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" s="18"/>
-    </row>
-    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="18"/>
-    </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D115" s="18"/>
-    </row>
-    <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D116" s="18"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="D117" s="18"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D118" s="18"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="D119" s="18"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="D120" s="18"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="D121" s="18"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="D122" s="18"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="18"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" s="18"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D125" s="18"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="B128" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" s="16"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" s="18" t="s">
+      <c r="B129" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D126" s="18"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="C129" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="16"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B127" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="B130" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D127" s="18"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+      <c r="C130" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="16"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B128" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C128" s="18" t="s">
+      <c r="B131" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D128" s="18"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="C131" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D131" s="16"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B129" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C129" s="18" t="s">
+      <c r="B132" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D129" s="18"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="C132" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="16"/>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="18" t="s">
+      <c r="B133" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D130" s="18"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
+      <c r="C133" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B131" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="18" t="s">
+      <c r="B134" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D131" s="18"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B132" s="18" t="s">
+      <c r="C134" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D132" s="18"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="D134" s="16"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+      <c r="A139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="A172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Список змінних.xlsx
+++ b/Список змінних.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>Назва перемінної</t>
   </si>
@@ -1164,6 +1164,141 @@
   </si>
   <si>
     <t>%MW100</t>
+  </si>
+  <si>
+    <t>%4X9.6</t>
+  </si>
+  <si>
+    <t>%MW8.6</t>
+  </si>
+  <si>
+    <t>%4X9.7</t>
+  </si>
+  <si>
+    <t>%MW8.7</t>
+  </si>
+  <si>
+    <t>%4X9.8</t>
+  </si>
+  <si>
+    <t>%MW8.8</t>
+  </si>
+  <si>
+    <t>%4X9.9</t>
+  </si>
+  <si>
+    <t>%MW8.9</t>
+  </si>
+  <si>
+    <t>%4X9.10</t>
+  </si>
+  <si>
+    <t>%MW8.10</t>
+  </si>
+  <si>
+    <t>%4X9.11</t>
+  </si>
+  <si>
+    <t>%MW8.11</t>
+  </si>
+  <si>
+    <t>%4X9.12</t>
+  </si>
+  <si>
+    <t>%MW8.12</t>
+  </si>
+  <si>
+    <t>%4X9.13</t>
+  </si>
+  <si>
+    <t>%MW8.13</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору тиск BP1</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору тиск BP2</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору витрат FT2</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору витрат FT7</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору I weld</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору I cut</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору U cut</t>
+  </si>
+  <si>
+    <t>Аларми. Галочка вибору U weld</t>
+  </si>
+  <si>
+    <t>Мигання аларму в ручному режимі</t>
+  </si>
+  <si>
+    <t>%4X9.14</t>
+  </si>
+  <si>
+    <t>%MW8.14</t>
+  </si>
+  <si>
+    <t>%4X103</t>
+  </si>
+  <si>
+    <t>%MW102</t>
+  </si>
+  <si>
+    <t>%4X19_10</t>
+  </si>
+  <si>
+    <t>%MW18.10</t>
+  </si>
+  <si>
+    <t>%4X19_11</t>
+  </si>
+  <si>
+    <t>%MW18.11</t>
+  </si>
+  <si>
+    <t>%4X19_12</t>
+  </si>
+  <si>
+    <t>%MW18.12</t>
+  </si>
+  <si>
+    <t>%4X19_13</t>
+  </si>
+  <si>
+    <t>%MW18.13</t>
+  </si>
+  <si>
+    <t>%4X19_14</t>
+  </si>
+  <si>
+    <t>%MW18.14</t>
+  </si>
+  <si>
+    <t>Галочка аларми чергова дуга</t>
+  </si>
+  <si>
+    <t>Галочка аларми основна дуга</t>
+  </si>
+  <si>
+    <t>Галочка аларми лазер</t>
+  </si>
+  <si>
+    <t>Галочка аларми готовність робота</t>
+  </si>
+  <si>
+    <t>Галочка ларми аварія робота</t>
+  </si>
+  <si>
+    <t>РУЧНИЙ. В процесі. Блокування переходу в автомат</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1338,6 +1473,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,11 +1787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,13 +2894,13 @@
     </row>
     <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>143</v>
+        <v>408</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
       <c r="D74" s="19"/>
       <c r="G74" s="5"/>
@@ -2771,28 +2909,28 @@
     </row>
     <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="16"/>
+        <v>144</v>
+      </c>
+      <c r="D75" s="19"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D76" s="16"/>
       <c r="G76" s="5"/>
@@ -2801,13 +2939,13 @@
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D77" s="16"/>
       <c r="G77" s="5"/>
@@ -2816,13 +2954,13 @@
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D78" s="16"/>
       <c r="G78" s="5"/>
@@ -2831,270 +2969,279 @@
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D79" s="16"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D80" s="16"/>
-      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D81" s="16"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D82" s="16"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="16"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="16"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B91" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="16"/>
-    </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="D92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B94" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B97" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C97" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="D96" s="16"/>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B99" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C99" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="D98" s="16"/>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="16"/>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B101" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C101" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D100" s="16"/>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,429 +3262,588 @@
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+    <row r="105" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+    </row>
+    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" s="16"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="16"/>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B119" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C119" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D118" s="16"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>361</v>
       </c>
       <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D120" s="16"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B121" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C121" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D120" s="16"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+      <c r="D121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B122" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C122" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="D121" s="16"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>367</v>
       </c>
       <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D124" s="16"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B125" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C125" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="16"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+      <c r="D125" s="16"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D128" s="16"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D129" s="16"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" s="16"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="16"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" s="16"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D134" s="16"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B135" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C135" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D125" s="16"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
+      <c r="D135" s="16"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B136" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C136" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D126" s="16"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="D136" s="16"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B137" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C137" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="16"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
+      <c r="D137" s="16"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B138" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C138" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D128" s="16"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
+      <c r="D138" s="16"/>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B139" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C139" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D129" s="16"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
+      <c r="D139" s="16"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B140" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C140" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D130" s="16"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
+      <c r="D140" s="16"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B141" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C141" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D131" s="16"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
+      <c r="D141" s="16"/>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B142" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C142" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D132" s="16"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
+      <c r="D142" s="16"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B143" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C143" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D133" s="16"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="D143" s="16"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B144" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C144" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D134" s="16"/>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
+      <c r="D144" s="16"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="16"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" s="16"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D147" s="16"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D148" s="16"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
